--- a/Code/Results/Cases/Case_2_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_14/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9798992578867957</v>
+        <v>0.9798992578867961</v>
       </c>
       <c r="D2">
         <v>1.002237234715293</v>
       </c>
       <c r="E2">
-        <v>0.9550372366581219</v>
+        <v>0.9550372366581217</v>
       </c>
       <c r="F2">
-        <v>0.9797786404345269</v>
+        <v>0.9797786404345264</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -442,13 +442,13 @@
         <v>1.002698262986545</v>
       </c>
       <c r="K2">
-        <v>1.013665489052204</v>
+        <v>1.013665489052205</v>
       </c>
       <c r="L2">
-        <v>0.9671606694498499</v>
+        <v>0.9671606694498496</v>
       </c>
       <c r="M2">
-        <v>0.9915270693855012</v>
+        <v>0.9915270693855013</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9907436403568833</v>
+        <v>0.9907436403568841</v>
       </c>
       <c r="D3">
-        <v>1.01073138450633</v>
+        <v>1.010731384506331</v>
       </c>
       <c r="E3">
-        <v>0.9645929056220287</v>
+        <v>0.9645929056220288</v>
       </c>
       <c r="F3">
-        <v>0.9906118574334751</v>
+        <v>0.9906118574334758</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -480,10 +480,10 @@
         <v>1.011489863641916</v>
       </c>
       <c r="K3">
-        <v>1.021228772216552</v>
+        <v>1.021228772216553</v>
       </c>
       <c r="L3">
-        <v>0.9756998106952359</v>
+        <v>0.975699810695236</v>
       </c>
       <c r="M3">
         <v>1.001366287569948</v>
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9974327543837354</v>
+        <v>0.997432754383735</v>
       </c>
       <c r="D4">
         <v>1.015972567483026</v>
       </c>
       <c r="E4">
-        <v>0.9704422580491551</v>
+        <v>0.9704422580491554</v>
       </c>
       <c r="F4">
-        <v>0.9972680991762919</v>
+        <v>0.9972680991762927</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.043498438732946</v>
       </c>
       <c r="J4">
-        <v>1.016902359329294</v>
+        <v>1.016902359329293</v>
       </c>
       <c r="K4">
         <v>1.025881965304632</v>
       </c>
       <c r="L4">
-        <v>0.9809110137599711</v>
+        <v>0.9809110137599715</v>
       </c>
       <c r="M4">
-        <v>1.007399608046666</v>
+        <v>1.007399608046667</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,10 +541,10 @@
         <v>1.018120178123917</v>
       </c>
       <c r="E5">
-        <v>0.9728286923494386</v>
+        <v>0.9728286923494384</v>
       </c>
       <c r="F5">
-        <v>0.9999895214081114</v>
+        <v>0.9999895214081115</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -559,7 +559,7 @@
         <v>1.027785475148853</v>
       </c>
       <c r="L5">
-        <v>0.9830333503168314</v>
+        <v>0.9830333503168313</v>
       </c>
       <c r="M5">
         <v>1.009863469523443</v>
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00062951078939</v>
+        <v>1.000629510789392</v>
       </c>
       <c r="D6">
-        <v>1.018477639735759</v>
+        <v>1.01847763973576</v>
       </c>
       <c r="E6">
-        <v>0.9732253169401871</v>
+        <v>0.9732253169401885</v>
       </c>
       <c r="F6">
-        <v>1.000442157439655</v>
+        <v>1.000442157439657</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044696865634851</v>
+        <v>1.044696865634852</v>
       </c>
       <c r="J6">
-        <v>1.019485940312293</v>
+        <v>1.019485940312294</v>
       </c>
       <c r="K6">
-        <v>1.02810212323916</v>
+        <v>1.028102123239161</v>
       </c>
       <c r="L6">
-        <v>0.9833858633330941</v>
+        <v>0.9833858633330952</v>
       </c>
       <c r="M6">
-        <v>1.010273098953218</v>
+        <v>1.01027309895322</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9974696469265363</v>
+        <v>0.9974696469265349</v>
       </c>
       <c r="D7">
-        <v>1.016001476734683</v>
+        <v>1.016001476734682</v>
       </c>
       <c r="E7">
-        <v>0.9704744223094006</v>
+        <v>0.9704744223094</v>
       </c>
       <c r="F7">
-        <v>0.9973047555587127</v>
+        <v>0.9973047555587119</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.043512292552903</v>
       </c>
       <c r="J7">
-        <v>1.016932187137131</v>
+        <v>1.01693218713713</v>
       </c>
       <c r="K7">
-        <v>1.025907601146889</v>
+        <v>1.025907601146888</v>
       </c>
       <c r="L7">
-        <v>0.9809396333303233</v>
+        <v>0.9809396333303226</v>
       </c>
       <c r="M7">
-        <v>1.007432806580681</v>
+        <v>1.00743280658068</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9836366365134355</v>
+        <v>0.9836366365134339</v>
       </c>
       <c r="D8">
-        <v>1.005164139494806</v>
+        <v>1.005164139494804</v>
       </c>
       <c r="E8">
-        <v>0.9583404991288249</v>
+        <v>0.9583404991288242</v>
       </c>
       <c r="F8">
-        <v>0.9835180758032834</v>
+        <v>0.9835180758032818</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038282506925763</v>
+        <v>1.038282506925762</v>
       </c>
       <c r="J8">
-        <v>1.005730392840396</v>
+        <v>1.005730392840394</v>
       </c>
       <c r="K8">
-        <v>1.016274610678508</v>
+        <v>1.016274610678506</v>
       </c>
       <c r="L8">
-        <v>0.9701159943106132</v>
+        <v>0.9701159943106124</v>
       </c>
       <c r="M8">
-        <v>0.9949260327040063</v>
+        <v>0.9949260327040047</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.956364207168928</v>
+        <v>0.9563642071689248</v>
       </c>
       <c r="D9">
-        <v>0.9838231341156121</v>
+        <v>0.9838231341156092</v>
       </c>
       <c r="E9">
-        <v>0.9339983375827627</v>
+        <v>0.9339983375827601</v>
       </c>
       <c r="F9">
-        <v>0.9560850662709071</v>
+        <v>0.9560850662709037</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02779804357622</v>
+        <v>1.027798043576218</v>
       </c>
       <c r="J9">
-        <v>0.983557884444978</v>
+        <v>0.9835578844449748</v>
       </c>
       <c r="K9">
-        <v>0.997184238087976</v>
+        <v>0.9971842380879731</v>
       </c>
       <c r="L9">
-        <v>0.9482614289895502</v>
+        <v>0.9482614289895475</v>
       </c>
       <c r="M9">
-        <v>0.9699332207501712</v>
+        <v>0.969933220750168</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9355388194442154</v>
+        <v>0.9355388194442136</v>
       </c>
       <c r="D10">
-        <v>0.9675630532276628</v>
+        <v>0.9675630532276612</v>
       </c>
       <c r="E10">
-        <v>0.9150407097582551</v>
+        <v>0.915040709758254</v>
       </c>
       <c r="F10">
-        <v>0.934899651417335</v>
+        <v>0.9348996514173337</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.019672440304974</v>
+        <v>1.019672440304973</v>
       </c>
       <c r="J10">
-        <v>0.9665658950494821</v>
+        <v>0.9665658950494805</v>
       </c>
       <c r="K10">
-        <v>0.9825437502582607</v>
+        <v>0.9825437502582592</v>
       </c>
       <c r="L10">
-        <v>0.931134338817317</v>
+        <v>0.9311343388173158</v>
       </c>
       <c r="M10">
-        <v>0.9505529712088154</v>
+        <v>0.950552971208814</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9256701503151361</v>
+        <v>0.9256701503151358</v>
       </c>
       <c r="D11">
-        <v>0.9598718597078797</v>
+        <v>0.9598718597078795</v>
       </c>
       <c r="E11">
-        <v>0.905942586251529</v>
+        <v>0.9059425862515293</v>
       </c>
       <c r="F11">
-        <v>0.9247827786222377</v>
+        <v>0.9247827786222371</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.015793468348442</v>
       </c>
       <c r="J11">
-        <v>0.9584990097372784</v>
+        <v>0.9584990097372781</v>
       </c>
       <c r="K11">
-        <v>0.9755923996945596</v>
+        <v>0.9755923996945595</v>
       </c>
       <c r="L11">
-        <v>0.9228866593238466</v>
+        <v>0.9228866593238468</v>
       </c>
       <c r="M11">
-        <v>0.9412777134560858</v>
+        <v>0.9412777134560855</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9218497049346006</v>
+        <v>0.9218497049345985</v>
       </c>
       <c r="D12">
-        <v>0.9568970941578028</v>
+        <v>0.9568970941578008</v>
       </c>
       <c r="E12">
-        <v>0.9024000271741862</v>
+        <v>0.9024000271741851</v>
       </c>
       <c r="F12">
-        <v>0.9208520344793512</v>
+        <v>0.9208520344793489</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.01428753159526</v>
+        <v>1.014287531595258</v>
       </c>
       <c r="J12">
-        <v>0.9553738203092</v>
+        <v>0.9553738203091979</v>
       </c>
       <c r="K12">
-        <v>0.9728994427425148</v>
+        <v>0.9728994427425132</v>
       </c>
       <c r="L12">
-        <v>0.9196707449517028</v>
+        <v>0.9196707449517016</v>
       </c>
       <c r="M12">
-        <v>0.9376707397441615</v>
+        <v>0.9376707397441594</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9226767387670088</v>
+        <v>0.9226767387670084</v>
       </c>
       <c r="D13">
-        <v>0.9575409255317086</v>
+        <v>0.9575409255317083</v>
       </c>
       <c r="E13">
-        <v>0.9031678865320834</v>
+        <v>0.9031678865320824</v>
       </c>
       <c r="F13">
-        <v>0.9217036347516084</v>
+        <v>0.9217036347516075</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.014613722881044</v>
+        <v>1.014613722881043</v>
       </c>
       <c r="J13">
-        <v>0.9560504511056112</v>
+        <v>0.9560504511056106</v>
       </c>
       <c r="K13">
-        <v>0.9734824850252418</v>
+        <v>0.9734824850252417</v>
       </c>
       <c r="L13">
-        <v>0.9203680102372549</v>
+        <v>0.9203680102372538</v>
       </c>
       <c r="M13">
-        <v>0.9384523425675801</v>
+        <v>0.9384523425675794</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9253576964073807</v>
+        <v>0.9253576964073812</v>
       </c>
       <c r="D14">
-        <v>0.9596285108732679</v>
+        <v>0.9596285108732682</v>
       </c>
       <c r="E14">
-        <v>0.9056532921250501</v>
+        <v>0.9056532921250502</v>
       </c>
       <c r="F14">
-        <v>0.9244616076007871</v>
+        <v>0.9244616076007875</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.01567039188973</v>
       </c>
       <c r="J14">
-        <v>0.9582434631031665</v>
+        <v>0.9582434631031668</v>
       </c>
       <c r="K14">
-        <v>0.9753721941660208</v>
+        <v>0.9753721941660211</v>
       </c>
       <c r="L14">
-        <v>0.9226241318833346</v>
+        <v>0.9226241318833348</v>
       </c>
       <c r="M14">
-        <v>0.9409830627061748</v>
+        <v>0.940983062706175</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9269880567370286</v>
+        <v>0.9269880567370282</v>
       </c>
       <c r="D15">
-        <v>0.9608983995104385</v>
+        <v>0.9608983995104382</v>
       </c>
       <c r="E15">
-        <v>0.9071619631813579</v>
+        <v>0.9071619631813577</v>
       </c>
       <c r="F15">
-        <v>0.9261368638656106</v>
+        <v>0.9261368638656101</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.016312423194835</v>
       </c>
       <c r="J15">
-        <v>0.9595767941000252</v>
+        <v>0.9595767941000247</v>
       </c>
       <c r="K15">
-        <v>0.9765211344643205</v>
+        <v>0.9765211344643203</v>
       </c>
       <c r="L15">
-        <v>0.9239930321929853</v>
+        <v>0.9239930321929851</v>
       </c>
       <c r="M15">
-        <v>0.9425198562836644</v>
+        <v>0.942519856283664</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.936173731873298</v>
+        <v>0.9361737318732964</v>
       </c>
       <c r="D16">
-        <v>0.9680582071471096</v>
+        <v>0.9680582071471082</v>
       </c>
       <c r="E16">
-        <v>0.9156234852321667</v>
+        <v>0.9156234852321664</v>
       </c>
       <c r="F16">
-        <v>0.9355487672373419</v>
+        <v>0.935548767237341</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.01992142219107</v>
+        <v>1.019921422191069</v>
       </c>
       <c r="J16">
-        <v>0.9670845849533226</v>
+        <v>0.9670845849533212</v>
       </c>
       <c r="K16">
-        <v>0.982990710389442</v>
+        <v>0.9829907103894407</v>
       </c>
       <c r="L16">
-        <v>0.9316620522638394</v>
+        <v>0.931662052263839</v>
       </c>
       <c r="M16">
-        <v>0.9511476627790116</v>
+        <v>0.9511476627790104</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9416913066440439</v>
+        <v>0.941691306644043</v>
       </c>
       <c r="D17">
-        <v>0.9723628435760385</v>
+        <v>0.9723628435760376</v>
       </c>
       <c r="E17">
-        <v>0.9206751203840889</v>
+        <v>0.9206751203840877</v>
       </c>
       <c r="F17">
-        <v>0.9411810340811949</v>
+        <v>0.9411810340811934</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.022082023484131</v>
+        <v>1.02208202348413</v>
       </c>
       <c r="J17">
-        <v>0.9715905259972273</v>
+        <v>0.9715905259972265</v>
       </c>
       <c r="K17">
-        <v>0.9868734492845832</v>
+        <v>0.9868734492845822</v>
       </c>
       <c r="L17">
-        <v>0.9362333074103922</v>
+        <v>0.9362333074103908</v>
       </c>
       <c r="M17">
-        <v>0.9563054495073205</v>
+        <v>0.9563054495073191</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9448296751911518</v>
+        <v>0.9448296751911531</v>
       </c>
       <c r="D18">
-        <v>0.9748125411206814</v>
+        <v>0.9748125411206825</v>
       </c>
       <c r="E18">
-        <v>0.9235382518939981</v>
+        <v>0.9235382518939986</v>
       </c>
       <c r="F18">
-        <v>0.9443777490839278</v>
+        <v>0.9443777490839289</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023308367991797</v>
+        <v>1.023308367991798</v>
       </c>
       <c r="J18">
-        <v>0.9741521380338829</v>
+        <v>0.9741521380338841</v>
       </c>
       <c r="K18">
-        <v>0.9890806835175415</v>
+        <v>0.9890806835175429</v>
       </c>
       <c r="L18">
-        <v>0.9388216505671909</v>
+        <v>0.9388216505671912</v>
       </c>
       <c r="M18">
-        <v>0.9592310190617586</v>
+        <v>0.9592310190617596</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9458869041299217</v>
+        <v>0.9458869041299184</v>
       </c>
       <c r="D19">
-        <v>0.975637971584763</v>
+        <v>0.9756379715847601</v>
       </c>
       <c r="E19">
-        <v>0.9245011046452253</v>
+        <v>0.9245011046452232</v>
       </c>
       <c r="F19">
-        <v>0.9454535251708154</v>
+        <v>0.9454535251708124</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023721048917958</v>
+        <v>1.023721048917956</v>
       </c>
       <c r="J19">
-        <v>0.9750148465371993</v>
+        <v>0.9750148465371961</v>
       </c>
       <c r="K19">
-        <v>0.9898240235731326</v>
+        <v>0.9898240235731298</v>
       </c>
       <c r="L19">
-        <v>0.9396916728282902</v>
+        <v>0.9396916728282879</v>
       </c>
       <c r="M19">
-        <v>0.9602152389070923</v>
+        <v>0.9602152389070892</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9411077592964634</v>
+        <v>0.941107759296464</v>
       </c>
       <c r="D20">
-        <v>0.9719074450514946</v>
+        <v>0.9719074450514952</v>
       </c>
       <c r="E20">
-        <v>0.9201419369250678</v>
+        <v>0.920141936925068</v>
       </c>
       <c r="F20">
-        <v>0.9405860912546679</v>
+        <v>0.9405860912546682</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.021853785810195</v>
       </c>
       <c r="J20">
-        <v>0.9711141112255072</v>
+        <v>0.9711141112255076</v>
       </c>
       <c r="K20">
-        <v>0.9864629340974079</v>
+        <v>0.9864629340974085</v>
       </c>
       <c r="L20">
-        <v>0.9357510918861893</v>
+        <v>0.9357510918861898</v>
       </c>
       <c r="M20">
-        <v>0.9557608202519224</v>
+        <v>0.9557608202519229</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9245727550774664</v>
+        <v>0.9245727550774662</v>
       </c>
       <c r="D21">
-        <v>0.9590172198183987</v>
+        <v>0.9590172198183988</v>
       </c>
       <c r="E21">
-        <v>0.9049261933219384</v>
+        <v>0.9049261933219386</v>
       </c>
       <c r="F21">
-        <v>0.9236545299399522</v>
+        <v>0.9236545299399523</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.015361132957536</v>
+        <v>1.015361132957537</v>
       </c>
       <c r="J21">
-        <v>0.9576014468063452</v>
+        <v>0.9576014468063451</v>
       </c>
       <c r="K21">
         <v>0.9748189679673551</v>
       </c>
       <c r="L21">
-        <v>0.9219642344756774</v>
+        <v>0.9219642344756777</v>
       </c>
       <c r="M21">
-        <v>0.9402425763280432</v>
+        <v>0.9402425763280433</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9132601957029467</v>
+        <v>0.9132601957029506</v>
       </c>
       <c r="D22">
-        <v>0.9502148065539695</v>
+        <v>0.9502148065539728</v>
       </c>
       <c r="E22">
-        <v>0.894392496120774</v>
+        <v>0.8943924961207775</v>
       </c>
       <c r="F22">
-        <v>0.9119842771316877</v>
+        <v>0.9119842771316919</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.01089373349691</v>
+        <v>1.010893733496912</v>
       </c>
       <c r="J22">
-        <v>0.948343138305194</v>
+        <v>0.9483431383051976</v>
       </c>
       <c r="K22">
-        <v>0.9668415252451101</v>
+        <v>0.9668415252451131</v>
       </c>
       <c r="L22">
-        <v>0.9123927691117328</v>
+        <v>0.9123927691117365</v>
       </c>
       <c r="M22">
-        <v>0.9295271720001643</v>
+        <v>0.9295271720001685</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9193556346248692</v>
+        <v>0.9193556346248672</v>
       </c>
       <c r="D23">
-        <v>0.9549559573789222</v>
+        <v>0.9549559573789207</v>
       </c>
       <c r="E23">
-        <v>0.9000810980488642</v>
+        <v>0.9000810980488614</v>
       </c>
       <c r="F23">
-        <v>0.918281543562375</v>
+        <v>0.9182815435623726</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.013303214036133</v>
+        <v>1.013303214036132</v>
       </c>
       <c r="J23">
-        <v>0.9533329792981644</v>
+        <v>0.9533329792981626</v>
       </c>
       <c r="K23">
-        <v>0.9711409085005563</v>
+        <v>0.9711409085005549</v>
       </c>
       <c r="L23">
-        <v>0.9175643243772387</v>
+        <v>0.9175643243772358</v>
       </c>
       <c r="M23">
-        <v>0.935311043503133</v>
+        <v>0.9353110435031304</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9413716843314767</v>
+        <v>0.9413716843314777</v>
       </c>
       <c r="D24">
-        <v>0.972113407486027</v>
+        <v>0.9721134074860279</v>
       </c>
       <c r="E24">
-        <v>0.9203831152074688</v>
+        <v>0.9203831152074698</v>
       </c>
       <c r="F24">
-        <v>0.94085519154439</v>
+        <v>0.9408551915443909</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.021957020559518</v>
       </c>
       <c r="J24">
-        <v>0.9713295868574366</v>
+        <v>0.9713295868574378</v>
       </c>
       <c r="K24">
-        <v>0.9866486045762536</v>
+        <v>0.9866486045762546</v>
       </c>
       <c r="L24">
-        <v>0.9359692233843491</v>
+        <v>0.9359692233843501</v>
       </c>
       <c r="M24">
-        <v>0.9560071688190643</v>
+        <v>0.9560071688190654</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,19 +1292,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>0.9638198281334747</v>
+        <v>0.9638198281334756</v>
       </c>
       <c r="D25">
-        <v>0.9896527582001043</v>
+        <v>0.9896527582001051</v>
       </c>
       <c r="E25">
-        <v>0.9407073080442412</v>
+        <v>0.9407073080442414</v>
       </c>
       <c r="F25">
-        <v>0.9636185206774764</v>
+        <v>0.9636185206774771</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.030683984511894</v>
       </c>
       <c r="J25">
-        <v>0.9896293106184961</v>
+        <v>0.9896293106184969</v>
       </c>
       <c r="K25">
         <v>1.002413853956396</v>
       </c>
       <c r="L25">
-        <v>0.9543015333250466</v>
+        <v>0.954301533325047</v>
       </c>
       <c r="M25">
-        <v>0.9768091504517723</v>
+        <v>0.9768091504517729</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_14/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9798992578867961</v>
+        <v>0.9798992578867957</v>
       </c>
       <c r="D2">
         <v>1.002237234715293</v>
       </c>
       <c r="E2">
-        <v>0.9550372366581217</v>
+        <v>0.9550372366581219</v>
       </c>
       <c r="F2">
-        <v>0.9797786404345264</v>
+        <v>0.9797786404345269</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -442,13 +442,13 @@
         <v>1.002698262986545</v>
       </c>
       <c r="K2">
-        <v>1.013665489052205</v>
+        <v>1.013665489052204</v>
       </c>
       <c r="L2">
-        <v>0.9671606694498496</v>
+        <v>0.9671606694498499</v>
       </c>
       <c r="M2">
-        <v>0.9915270693855013</v>
+        <v>0.9915270693855012</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9907436403568841</v>
+        <v>0.9907436403568833</v>
       </c>
       <c r="D3">
-        <v>1.010731384506331</v>
+        <v>1.01073138450633</v>
       </c>
       <c r="E3">
-        <v>0.9645929056220288</v>
+        <v>0.9645929056220287</v>
       </c>
       <c r="F3">
-        <v>0.9906118574334758</v>
+        <v>0.9906118574334751</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -480,10 +480,10 @@
         <v>1.011489863641916</v>
       </c>
       <c r="K3">
-        <v>1.021228772216553</v>
+        <v>1.021228772216552</v>
       </c>
       <c r="L3">
-        <v>0.975699810695236</v>
+        <v>0.9756998106952359</v>
       </c>
       <c r="M3">
         <v>1.001366287569948</v>
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.997432754383735</v>
+        <v>0.9974327543837354</v>
       </c>
       <c r="D4">
         <v>1.015972567483026</v>
       </c>
       <c r="E4">
-        <v>0.9704422580491554</v>
+        <v>0.9704422580491551</v>
       </c>
       <c r="F4">
-        <v>0.9972680991762927</v>
+        <v>0.9972680991762919</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.043498438732946</v>
       </c>
       <c r="J4">
-        <v>1.016902359329293</v>
+        <v>1.016902359329294</v>
       </c>
       <c r="K4">
         <v>1.025881965304632</v>
       </c>
       <c r="L4">
-        <v>0.9809110137599715</v>
+        <v>0.9809110137599711</v>
       </c>
       <c r="M4">
-        <v>1.007399608046667</v>
+        <v>1.007399608046666</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,10 +541,10 @@
         <v>1.018120178123917</v>
       </c>
       <c r="E5">
-        <v>0.9728286923494384</v>
+        <v>0.9728286923494386</v>
       </c>
       <c r="F5">
-        <v>0.9999895214081115</v>
+        <v>0.9999895214081114</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -559,7 +559,7 @@
         <v>1.027785475148853</v>
       </c>
       <c r="L5">
-        <v>0.9830333503168313</v>
+        <v>0.9830333503168314</v>
       </c>
       <c r="M5">
         <v>1.009863469523443</v>
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.000629510789392</v>
+        <v>1.00062951078939</v>
       </c>
       <c r="D6">
-        <v>1.01847763973576</v>
+        <v>1.018477639735759</v>
       </c>
       <c r="E6">
-        <v>0.9732253169401885</v>
+        <v>0.9732253169401871</v>
       </c>
       <c r="F6">
-        <v>1.000442157439657</v>
+        <v>1.000442157439655</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044696865634852</v>
+        <v>1.044696865634851</v>
       </c>
       <c r="J6">
-        <v>1.019485940312294</v>
+        <v>1.019485940312293</v>
       </c>
       <c r="K6">
-        <v>1.028102123239161</v>
+        <v>1.02810212323916</v>
       </c>
       <c r="L6">
-        <v>0.9833858633330952</v>
+        <v>0.9833858633330941</v>
       </c>
       <c r="M6">
-        <v>1.01027309895322</v>
+        <v>1.010273098953218</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9974696469265349</v>
+        <v>0.9974696469265363</v>
       </c>
       <c r="D7">
-        <v>1.016001476734682</v>
+        <v>1.016001476734683</v>
       </c>
       <c r="E7">
-        <v>0.9704744223094</v>
+        <v>0.9704744223094006</v>
       </c>
       <c r="F7">
-        <v>0.9973047555587119</v>
+        <v>0.9973047555587127</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.043512292552903</v>
       </c>
       <c r="J7">
-        <v>1.01693218713713</v>
+        <v>1.016932187137131</v>
       </c>
       <c r="K7">
-        <v>1.025907601146888</v>
+        <v>1.025907601146889</v>
       </c>
       <c r="L7">
-        <v>0.9809396333303226</v>
+        <v>0.9809396333303233</v>
       </c>
       <c r="M7">
-        <v>1.00743280658068</v>
+        <v>1.007432806580681</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9836366365134339</v>
+        <v>0.9836366365134355</v>
       </c>
       <c r="D8">
-        <v>1.005164139494804</v>
+        <v>1.005164139494806</v>
       </c>
       <c r="E8">
-        <v>0.9583404991288242</v>
+        <v>0.9583404991288249</v>
       </c>
       <c r="F8">
-        <v>0.9835180758032818</v>
+        <v>0.9835180758032834</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038282506925762</v>
+        <v>1.038282506925763</v>
       </c>
       <c r="J8">
-        <v>1.005730392840394</v>
+        <v>1.005730392840396</v>
       </c>
       <c r="K8">
-        <v>1.016274610678506</v>
+        <v>1.016274610678508</v>
       </c>
       <c r="L8">
-        <v>0.9701159943106124</v>
+        <v>0.9701159943106132</v>
       </c>
       <c r="M8">
-        <v>0.9949260327040047</v>
+        <v>0.9949260327040063</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9563642071689248</v>
+        <v>0.956364207168928</v>
       </c>
       <c r="D9">
-        <v>0.9838231341156092</v>
+        <v>0.9838231341156121</v>
       </c>
       <c r="E9">
-        <v>0.9339983375827601</v>
+        <v>0.9339983375827627</v>
       </c>
       <c r="F9">
-        <v>0.9560850662709037</v>
+        <v>0.9560850662709071</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027798043576218</v>
+        <v>1.02779804357622</v>
       </c>
       <c r="J9">
-        <v>0.9835578844449748</v>
+        <v>0.983557884444978</v>
       </c>
       <c r="K9">
-        <v>0.9971842380879731</v>
+        <v>0.997184238087976</v>
       </c>
       <c r="L9">
-        <v>0.9482614289895475</v>
+        <v>0.9482614289895502</v>
       </c>
       <c r="M9">
-        <v>0.969933220750168</v>
+        <v>0.9699332207501712</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9355388194442136</v>
+        <v>0.9355388194442154</v>
       </c>
       <c r="D10">
-        <v>0.9675630532276612</v>
+        <v>0.9675630532276628</v>
       </c>
       <c r="E10">
-        <v>0.915040709758254</v>
+        <v>0.9150407097582551</v>
       </c>
       <c r="F10">
-        <v>0.9348996514173337</v>
+        <v>0.934899651417335</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.019672440304973</v>
+        <v>1.019672440304974</v>
       </c>
       <c r="J10">
-        <v>0.9665658950494805</v>
+        <v>0.9665658950494821</v>
       </c>
       <c r="K10">
-        <v>0.9825437502582592</v>
+        <v>0.9825437502582607</v>
       </c>
       <c r="L10">
-        <v>0.9311343388173158</v>
+        <v>0.931134338817317</v>
       </c>
       <c r="M10">
-        <v>0.950552971208814</v>
+        <v>0.9505529712088154</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9256701503151358</v>
+        <v>0.9256701503151361</v>
       </c>
       <c r="D11">
-        <v>0.9598718597078795</v>
+        <v>0.9598718597078797</v>
       </c>
       <c r="E11">
-        <v>0.9059425862515293</v>
+        <v>0.905942586251529</v>
       </c>
       <c r="F11">
-        <v>0.9247827786222371</v>
+        <v>0.9247827786222377</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.015793468348442</v>
       </c>
       <c r="J11">
-        <v>0.9584990097372781</v>
+        <v>0.9584990097372784</v>
       </c>
       <c r="K11">
-        <v>0.9755923996945595</v>
+        <v>0.9755923996945596</v>
       </c>
       <c r="L11">
-        <v>0.9228866593238468</v>
+        <v>0.9228866593238466</v>
       </c>
       <c r="M11">
-        <v>0.9412777134560855</v>
+        <v>0.9412777134560858</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9218497049345985</v>
+        <v>0.9218497049346006</v>
       </c>
       <c r="D12">
-        <v>0.9568970941578008</v>
+        <v>0.9568970941578028</v>
       </c>
       <c r="E12">
-        <v>0.9024000271741851</v>
+        <v>0.9024000271741862</v>
       </c>
       <c r="F12">
-        <v>0.9208520344793489</v>
+        <v>0.9208520344793512</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.014287531595258</v>
+        <v>1.01428753159526</v>
       </c>
       <c r="J12">
-        <v>0.9553738203091979</v>
+        <v>0.9553738203092</v>
       </c>
       <c r="K12">
-        <v>0.9728994427425132</v>
+        <v>0.9728994427425148</v>
       </c>
       <c r="L12">
-        <v>0.9196707449517016</v>
+        <v>0.9196707449517028</v>
       </c>
       <c r="M12">
-        <v>0.9376707397441594</v>
+        <v>0.9376707397441615</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9226767387670084</v>
+        <v>0.9226767387670088</v>
       </c>
       <c r="D13">
-        <v>0.9575409255317083</v>
+        <v>0.9575409255317086</v>
       </c>
       <c r="E13">
-        <v>0.9031678865320824</v>
+        <v>0.9031678865320834</v>
       </c>
       <c r="F13">
-        <v>0.9217036347516075</v>
+        <v>0.9217036347516084</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.014613722881043</v>
+        <v>1.014613722881044</v>
       </c>
       <c r="J13">
-        <v>0.9560504511056106</v>
+        <v>0.9560504511056112</v>
       </c>
       <c r="K13">
-        <v>0.9734824850252417</v>
+        <v>0.9734824850252418</v>
       </c>
       <c r="L13">
-        <v>0.9203680102372538</v>
+        <v>0.9203680102372549</v>
       </c>
       <c r="M13">
-        <v>0.9384523425675794</v>
+        <v>0.9384523425675801</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9253576964073812</v>
+        <v>0.9253576964073807</v>
       </c>
       <c r="D14">
-        <v>0.9596285108732682</v>
+        <v>0.9596285108732679</v>
       </c>
       <c r="E14">
-        <v>0.9056532921250502</v>
+        <v>0.9056532921250501</v>
       </c>
       <c r="F14">
-        <v>0.9244616076007875</v>
+        <v>0.9244616076007871</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.01567039188973</v>
       </c>
       <c r="J14">
-        <v>0.9582434631031668</v>
+        <v>0.9582434631031665</v>
       </c>
       <c r="K14">
-        <v>0.9753721941660211</v>
+        <v>0.9753721941660208</v>
       </c>
       <c r="L14">
-        <v>0.9226241318833348</v>
+        <v>0.9226241318833346</v>
       </c>
       <c r="M14">
-        <v>0.940983062706175</v>
+        <v>0.9409830627061748</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9269880567370282</v>
+        <v>0.9269880567370286</v>
       </c>
       <c r="D15">
-        <v>0.9608983995104382</v>
+        <v>0.9608983995104385</v>
       </c>
       <c r="E15">
-        <v>0.9071619631813577</v>
+        <v>0.9071619631813579</v>
       </c>
       <c r="F15">
-        <v>0.9261368638656101</v>
+        <v>0.9261368638656106</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.016312423194835</v>
       </c>
       <c r="J15">
-        <v>0.9595767941000247</v>
+        <v>0.9595767941000252</v>
       </c>
       <c r="K15">
-        <v>0.9765211344643203</v>
+        <v>0.9765211344643205</v>
       </c>
       <c r="L15">
-        <v>0.9239930321929851</v>
+        <v>0.9239930321929853</v>
       </c>
       <c r="M15">
-        <v>0.942519856283664</v>
+        <v>0.9425198562836644</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9361737318732964</v>
+        <v>0.936173731873298</v>
       </c>
       <c r="D16">
-        <v>0.9680582071471082</v>
+        <v>0.9680582071471096</v>
       </c>
       <c r="E16">
-        <v>0.9156234852321664</v>
+        <v>0.9156234852321667</v>
       </c>
       <c r="F16">
-        <v>0.935548767237341</v>
+        <v>0.9355487672373419</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.019921422191069</v>
+        <v>1.01992142219107</v>
       </c>
       <c r="J16">
-        <v>0.9670845849533212</v>
+        <v>0.9670845849533226</v>
       </c>
       <c r="K16">
-        <v>0.9829907103894407</v>
+        <v>0.982990710389442</v>
       </c>
       <c r="L16">
-        <v>0.931662052263839</v>
+        <v>0.9316620522638394</v>
       </c>
       <c r="M16">
-        <v>0.9511476627790104</v>
+        <v>0.9511476627790116</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.941691306644043</v>
+        <v>0.9416913066440439</v>
       </c>
       <c r="D17">
-        <v>0.9723628435760376</v>
+        <v>0.9723628435760385</v>
       </c>
       <c r="E17">
-        <v>0.9206751203840877</v>
+        <v>0.9206751203840889</v>
       </c>
       <c r="F17">
-        <v>0.9411810340811934</v>
+        <v>0.9411810340811949</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02208202348413</v>
+        <v>1.022082023484131</v>
       </c>
       <c r="J17">
-        <v>0.9715905259972265</v>
+        <v>0.9715905259972273</v>
       </c>
       <c r="K17">
-        <v>0.9868734492845822</v>
+        <v>0.9868734492845832</v>
       </c>
       <c r="L17">
-        <v>0.9362333074103908</v>
+        <v>0.9362333074103922</v>
       </c>
       <c r="M17">
-        <v>0.9563054495073191</v>
+        <v>0.9563054495073205</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9448296751911531</v>
+        <v>0.9448296751911518</v>
       </c>
       <c r="D18">
-        <v>0.9748125411206825</v>
+        <v>0.9748125411206814</v>
       </c>
       <c r="E18">
-        <v>0.9235382518939986</v>
+        <v>0.9235382518939981</v>
       </c>
       <c r="F18">
-        <v>0.9443777490839289</v>
+        <v>0.9443777490839278</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023308367991798</v>
+        <v>1.023308367991797</v>
       </c>
       <c r="J18">
-        <v>0.9741521380338841</v>
+        <v>0.9741521380338829</v>
       </c>
       <c r="K18">
-        <v>0.9890806835175429</v>
+        <v>0.9890806835175415</v>
       </c>
       <c r="L18">
-        <v>0.9388216505671912</v>
+        <v>0.9388216505671909</v>
       </c>
       <c r="M18">
-        <v>0.9592310190617596</v>
+        <v>0.9592310190617586</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9458869041299184</v>
+        <v>0.9458869041299217</v>
       </c>
       <c r="D19">
-        <v>0.9756379715847601</v>
+        <v>0.975637971584763</v>
       </c>
       <c r="E19">
-        <v>0.9245011046452232</v>
+        <v>0.9245011046452253</v>
       </c>
       <c r="F19">
-        <v>0.9454535251708124</v>
+        <v>0.9454535251708154</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023721048917956</v>
+        <v>1.023721048917958</v>
       </c>
       <c r="J19">
-        <v>0.9750148465371961</v>
+        <v>0.9750148465371993</v>
       </c>
       <c r="K19">
-        <v>0.9898240235731298</v>
+        <v>0.9898240235731326</v>
       </c>
       <c r="L19">
-        <v>0.9396916728282879</v>
+        <v>0.9396916728282902</v>
       </c>
       <c r="M19">
-        <v>0.9602152389070892</v>
+        <v>0.9602152389070923</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.941107759296464</v>
+        <v>0.9411077592964634</v>
       </c>
       <c r="D20">
-        <v>0.9719074450514952</v>
+        <v>0.9719074450514946</v>
       </c>
       <c r="E20">
-        <v>0.920141936925068</v>
+        <v>0.9201419369250678</v>
       </c>
       <c r="F20">
-        <v>0.9405860912546682</v>
+        <v>0.9405860912546679</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.021853785810195</v>
       </c>
       <c r="J20">
-        <v>0.9711141112255076</v>
+        <v>0.9711141112255072</v>
       </c>
       <c r="K20">
-        <v>0.9864629340974085</v>
+        <v>0.9864629340974079</v>
       </c>
       <c r="L20">
-        <v>0.9357510918861898</v>
+        <v>0.9357510918861893</v>
       </c>
       <c r="M20">
-        <v>0.9557608202519229</v>
+        <v>0.9557608202519224</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9245727550774662</v>
+        <v>0.9245727550774664</v>
       </c>
       <c r="D21">
-        <v>0.9590172198183988</v>
+        <v>0.9590172198183987</v>
       </c>
       <c r="E21">
-        <v>0.9049261933219386</v>
+        <v>0.9049261933219384</v>
       </c>
       <c r="F21">
-        <v>0.9236545299399523</v>
+        <v>0.9236545299399522</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.015361132957537</v>
+        <v>1.015361132957536</v>
       </c>
       <c r="J21">
-        <v>0.9576014468063451</v>
+        <v>0.9576014468063452</v>
       </c>
       <c r="K21">
         <v>0.9748189679673551</v>
       </c>
       <c r="L21">
-        <v>0.9219642344756777</v>
+        <v>0.9219642344756774</v>
       </c>
       <c r="M21">
-        <v>0.9402425763280433</v>
+        <v>0.9402425763280432</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9132601957029506</v>
+        <v>0.9132601957029467</v>
       </c>
       <c r="D22">
-        <v>0.9502148065539728</v>
+        <v>0.9502148065539695</v>
       </c>
       <c r="E22">
-        <v>0.8943924961207775</v>
+        <v>0.894392496120774</v>
       </c>
       <c r="F22">
-        <v>0.9119842771316919</v>
+        <v>0.9119842771316877</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.010893733496912</v>
+        <v>1.01089373349691</v>
       </c>
       <c r="J22">
-        <v>0.9483431383051976</v>
+        <v>0.948343138305194</v>
       </c>
       <c r="K22">
-        <v>0.9668415252451131</v>
+        <v>0.9668415252451101</v>
       </c>
       <c r="L22">
-        <v>0.9123927691117365</v>
+        <v>0.9123927691117328</v>
       </c>
       <c r="M22">
-        <v>0.9295271720001685</v>
+        <v>0.9295271720001643</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9193556346248672</v>
+        <v>0.9193556346248692</v>
       </c>
       <c r="D23">
-        <v>0.9549559573789207</v>
+        <v>0.9549559573789222</v>
       </c>
       <c r="E23">
-        <v>0.9000810980488614</v>
+        <v>0.9000810980488642</v>
       </c>
       <c r="F23">
-        <v>0.9182815435623726</v>
+        <v>0.918281543562375</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.013303214036132</v>
+        <v>1.013303214036133</v>
       </c>
       <c r="J23">
-        <v>0.9533329792981626</v>
+        <v>0.9533329792981644</v>
       </c>
       <c r="K23">
-        <v>0.9711409085005549</v>
+        <v>0.9711409085005563</v>
       </c>
       <c r="L23">
-        <v>0.9175643243772358</v>
+        <v>0.9175643243772387</v>
       </c>
       <c r="M23">
-        <v>0.9353110435031304</v>
+        <v>0.935311043503133</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9413716843314777</v>
+        <v>0.9413716843314767</v>
       </c>
       <c r="D24">
-        <v>0.9721134074860279</v>
+        <v>0.972113407486027</v>
       </c>
       <c r="E24">
-        <v>0.9203831152074698</v>
+        <v>0.9203831152074688</v>
       </c>
       <c r="F24">
-        <v>0.9408551915443909</v>
+        <v>0.94085519154439</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.021957020559518</v>
       </c>
       <c r="J24">
-        <v>0.9713295868574378</v>
+        <v>0.9713295868574366</v>
       </c>
       <c r="K24">
-        <v>0.9866486045762546</v>
+        <v>0.9866486045762536</v>
       </c>
       <c r="L24">
-        <v>0.9359692233843501</v>
+        <v>0.9359692233843491</v>
       </c>
       <c r="M24">
-        <v>0.9560071688190654</v>
+        <v>0.9560071688190643</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,19 +1292,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9638198281334756</v>
+        <v>0.9638198281334747</v>
       </c>
       <c r="D25">
-        <v>0.9896527582001051</v>
+        <v>0.9896527582001043</v>
       </c>
       <c r="E25">
-        <v>0.9407073080442414</v>
+        <v>0.9407073080442412</v>
       </c>
       <c r="F25">
-        <v>0.9636185206774771</v>
+        <v>0.9636185206774764</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.030683984511894</v>
       </c>
       <c r="J25">
-        <v>0.9896293106184969</v>
+        <v>0.9896293106184961</v>
       </c>
       <c r="K25">
         <v>1.002413853956396</v>
       </c>
       <c r="L25">
-        <v>0.954301533325047</v>
+        <v>0.9543015333250466</v>
       </c>
       <c r="M25">
-        <v>0.9768091504517729</v>
+        <v>0.9768091504517723</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_14/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9798992578867957</v>
+        <v>0.9834320329858023</v>
       </c>
       <c r="D2">
-        <v>1.002237234715293</v>
+        <v>1.005068742749822</v>
       </c>
       <c r="E2">
-        <v>0.9550372366581219</v>
+        <v>0.956101914028195</v>
       </c>
       <c r="F2">
-        <v>0.9797786404345269</v>
+        <v>0.9821090916280988</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036858317446665</v>
+        <v>1.038342174615004</v>
       </c>
       <c r="J2">
-        <v>1.002698262986545</v>
+        <v>1.006119839415166</v>
       </c>
       <c r="K2">
-        <v>1.013665489052204</v>
+        <v>1.016457910736893</v>
       </c>
       <c r="L2">
-        <v>0.9671606694498499</v>
+        <v>0.9682086987018323</v>
       </c>
       <c r="M2">
-        <v>0.9915270693855012</v>
+        <v>0.9938234335019759</v>
+      </c>
+      <c r="N2">
+        <v>1.007548644990694</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9907436403568833</v>
+        <v>0.9942385409061434</v>
       </c>
       <c r="D3">
-        <v>1.01073138450633</v>
+        <v>1.013537172113481</v>
       </c>
       <c r="E3">
-        <v>0.9645929056220287</v>
+        <v>0.9656281856858695</v>
       </c>
       <c r="F3">
-        <v>0.9906118574334751</v>
+        <v>0.9929051722959789</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040977983088239</v>
+        <v>1.042449498582912</v>
       </c>
       <c r="J3">
-        <v>1.011489863641916</v>
+        <v>1.014887510941688</v>
       </c>
       <c r="K3">
-        <v>1.021228772216552</v>
+        <v>1.02399972349808</v>
       </c>
       <c r="L3">
-        <v>0.9756998106952359</v>
+        <v>0.97672060801701</v>
       </c>
       <c r="M3">
-        <v>1.001366287569948</v>
+        <v>1.003629644957615</v>
+      </c>
+      <c r="N3">
+        <v>1.01632876761645</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9974327543837354</v>
+        <v>1.000906562868065</v>
       </c>
       <c r="D4">
-        <v>1.015972567483026</v>
+        <v>1.018764161816919</v>
       </c>
       <c r="E4">
-        <v>0.9704422580491551</v>
+        <v>0.9714613648178111</v>
       </c>
       <c r="F4">
-        <v>0.9972680991762919</v>
+        <v>0.9995408430268717</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043498438732946</v>
+        <v>1.044963279269229</v>
       </c>
       <c r="J4">
-        <v>1.016902359329294</v>
+        <v>1.020287107069367</v>
       </c>
       <c r="K4">
-        <v>1.025881965304632</v>
+        <v>1.028641274301788</v>
       </c>
       <c r="L4">
-        <v>0.9809110137599711</v>
+        <v>0.9819168827153941</v>
       </c>
       <c r="M4">
-        <v>1.007399608046666</v>
+        <v>1.009644812829428</v>
+      </c>
+      <c r="N4">
+        <v>1.021736031789972</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.000173359227526</v>
+        <v>1.003639003086237</v>
       </c>
       <c r="D5">
-        <v>1.018120178123917</v>
+        <v>1.020906309698321</v>
       </c>
       <c r="E5">
-        <v>0.9728286923494386</v>
+        <v>0.9738415793420195</v>
       </c>
       <c r="F5">
-        <v>0.9999895214081114</v>
+        <v>1.002254324132105</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044526111981776</v>
+        <v>1.045988416488168</v>
       </c>
       <c r="J5">
-        <v>1.019117410884576</v>
+        <v>1.022497265434406</v>
       </c>
       <c r="K5">
-        <v>1.027785475148853</v>
+        <v>1.03054035224748</v>
       </c>
       <c r="L5">
-        <v>0.9830333503168314</v>
+        <v>0.9840334915411247</v>
       </c>
       <c r="M5">
-        <v>1.009863469523443</v>
+        <v>1.01210169811022</v>
+      </c>
+      <c r="N5">
+        <v>1.023949328833399</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00062951078939</v>
+        <v>1.004093822063239</v>
       </c>
       <c r="D6">
-        <v>1.018477639735759</v>
+        <v>1.021262881576189</v>
       </c>
       <c r="E6">
-        <v>0.9732253169401871</v>
+        <v>0.9742371910265393</v>
       </c>
       <c r="F6">
-        <v>1.000442157439655</v>
+        <v>1.002705665232957</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044696865634851</v>
+        <v>1.046158759071903</v>
       </c>
       <c r="J6">
-        <v>1.019485940312293</v>
+        <v>1.022865002107348</v>
       </c>
       <c r="K6">
-        <v>1.02810212323916</v>
+        <v>1.030856281407385</v>
       </c>
       <c r="L6">
-        <v>0.9833858633330941</v>
+        <v>0.9843850725818499</v>
       </c>
       <c r="M6">
-        <v>1.010273098953218</v>
+        <v>1.012510191815355</v>
+      </c>
+      <c r="N6">
+        <v>1.024317587734596</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9974696469265363</v>
+        <v>1.000943343688695</v>
       </c>
       <c r="D7">
-        <v>1.016001476734683</v>
+        <v>1.01879299619006</v>
       </c>
       <c r="E7">
-        <v>0.9704744223094006</v>
+        <v>0.9714934438106723</v>
       </c>
       <c r="F7">
-        <v>0.9973047555587127</v>
+        <v>0.9995773906623079</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043512292552903</v>
+        <v>1.044977098192076</v>
       </c>
       <c r="J7">
-        <v>1.016932187137131</v>
+        <v>1.020316867515799</v>
       </c>
       <c r="K7">
-        <v>1.025907601146889</v>
+        <v>1.028666849196128</v>
       </c>
       <c r="L7">
-        <v>0.9809396333303233</v>
+        <v>0.9819454237091734</v>
       </c>
       <c r="M7">
-        <v>1.007432806580681</v>
+        <v>1.009677915702881</v>
+      </c>
+      <c r="N7">
+        <v>1.021765834499653</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9836366365134355</v>
+        <v>0.9871558268336887</v>
       </c>
       <c r="D8">
-        <v>1.005164139494806</v>
+        <v>1.007986392363284</v>
       </c>
       <c r="E8">
-        <v>0.9583404991288249</v>
+        <v>0.9593945819855866</v>
       </c>
       <c r="F8">
-        <v>0.9835180758032834</v>
+        <v>0.9858351783724237</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038282506925763</v>
+        <v>1.039761892161555</v>
       </c>
       <c r="J8">
-        <v>1.005730392840396</v>
+        <v>1.009143287109314</v>
       </c>
       <c r="K8">
-        <v>1.016274610678508</v>
+        <v>1.019059258790754</v>
       </c>
       <c r="L8">
-        <v>0.9701159943106132</v>
+        <v>0.9711541973385246</v>
       </c>
       <c r="M8">
-        <v>0.9949260327040063</v>
+        <v>0.9972105024187501</v>
+      </c>
+      <c r="N8">
+        <v>1.010576386327362</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.956364207168928</v>
+        <v>0.9599966954218225</v>
       </c>
       <c r="D9">
-        <v>0.9838231341156121</v>
+        <v>0.9867233027658316</v>
       </c>
       <c r="E9">
-        <v>0.9339983375827627</v>
+        <v>0.9351423607762318</v>
       </c>
       <c r="F9">
-        <v>0.9560850662709071</v>
+        <v>0.9585144387269865</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02779804357622</v>
+        <v>1.029315822449956</v>
       </c>
       <c r="J9">
-        <v>0.983557884444978</v>
+        <v>0.9870457022331448</v>
       </c>
       <c r="K9">
-        <v>0.997184238087976</v>
+        <v>1.000035521659526</v>
       </c>
       <c r="L9">
-        <v>0.9482614289895502</v>
+        <v>0.94938332913267</v>
       </c>
       <c r="M9">
-        <v>0.9699332207501712</v>
+        <v>0.9723184713108801</v>
+      </c>
+      <c r="N9">
+        <v>0.9884474203460404</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9355388194442154</v>
+        <v>0.9392834019579931</v>
       </c>
       <c r="D10">
-        <v>0.9675630532276628</v>
+        <v>0.9705414082341046</v>
       </c>
       <c r="E10">
-        <v>0.9150407097582551</v>
+        <v>0.9162769679152762</v>
       </c>
       <c r="F10">
-        <v>0.934899651417335</v>
+        <v>0.937442117265294</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.019672440304974</v>
+        <v>1.021229844516678</v>
       </c>
       <c r="J10">
-        <v>0.9665658950494821</v>
+        <v>0.9701317798035135</v>
       </c>
       <c r="K10">
-        <v>0.9825437502582607</v>
+        <v>0.9854637271968587</v>
       </c>
       <c r="L10">
-        <v>0.931134338817317</v>
+        <v>0.9323424432196727</v>
       </c>
       <c r="M10">
-        <v>0.9505529712088154</v>
+        <v>0.953040850959056</v>
+      </c>
+      <c r="N10">
+        <v>0.9715094782065052</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9256701503151361</v>
+        <v>0.9294773628938868</v>
       </c>
       <c r="D11">
-        <v>0.9598718597078797</v>
+        <v>0.9628942047958733</v>
       </c>
       <c r="E11">
-        <v>0.905942586251529</v>
+        <v>0.9072316777648621</v>
       </c>
       <c r="F11">
-        <v>0.9247827786222377</v>
+        <v>0.9273892664810081</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.015793468348442</v>
+        <v>1.017373458032341</v>
       </c>
       <c r="J11">
-        <v>0.9584990097372784</v>
+        <v>0.962109641643178</v>
       </c>
       <c r="K11">
-        <v>0.9755923996945596</v>
+        <v>0.9785515308834709</v>
       </c>
       <c r="L11">
-        <v>0.9228866593238466</v>
+        <v>0.9241442197151809</v>
       </c>
       <c r="M11">
-        <v>0.9412777134560858</v>
+        <v>0.9438239840807177</v>
+      </c>
+      <c r="N11">
+        <v>0.9634759476898296</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9218497049346006</v>
+        <v>0.9256830480040502</v>
       </c>
       <c r="D12">
-        <v>0.9568970941578028</v>
+        <v>0.9599378443306503</v>
       </c>
       <c r="E12">
-        <v>0.9024000271741862</v>
+        <v>0.9037114263737269</v>
       </c>
       <c r="F12">
-        <v>0.9208520344793512</v>
+        <v>0.9234854055358238</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.01428753159526</v>
+        <v>1.015877018298251</v>
       </c>
       <c r="J12">
-        <v>0.9553738203092</v>
+        <v>0.9590033125959734</v>
       </c>
       <c r="K12">
-        <v>0.9728994427425148</v>
+        <v>0.9758750393347532</v>
       </c>
       <c r="L12">
-        <v>0.9196707449517028</v>
+        <v>0.9209491968981302</v>
       </c>
       <c r="M12">
-        <v>0.9376707397441615</v>
+        <v>0.9402415757686159</v>
+      </c>
+      <c r="N12">
+        <v>0.9603652072990773</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9226767387670088</v>
+        <v>0.9265043309879538</v>
       </c>
       <c r="D13">
-        <v>0.9575409255317086</v>
+        <v>0.9605776226686825</v>
       </c>
       <c r="E13">
-        <v>0.9031678865320834</v>
+        <v>0.904474363034885</v>
       </c>
       <c r="F13">
-        <v>0.9217036347516084</v>
+        <v>0.9243310807051411</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.014613722881044</v>
+        <v>1.0162011160349</v>
       </c>
       <c r="J13">
-        <v>0.9560504511056112</v>
+        <v>0.9596757836665496</v>
       </c>
       <c r="K13">
-        <v>0.9734824850252418</v>
+        <v>0.9764544518657224</v>
       </c>
       <c r="L13">
-        <v>0.9203680102372549</v>
+        <v>0.9216418515846431</v>
       </c>
       <c r="M13">
-        <v>0.9384523425675801</v>
+        <v>0.941017762209596</v>
+      </c>
+      <c r="N13">
+        <v>0.9610386333557069</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9253576964073807</v>
+        <v>0.9291670048268408</v>
       </c>
       <c r="D14">
-        <v>0.9596285108732679</v>
+        <v>0.9626523311201862</v>
       </c>
       <c r="E14">
-        <v>0.9056532921250501</v>
+        <v>0.9069441671831402</v>
       </c>
       <c r="F14">
-        <v>0.9244616076007871</v>
+        <v>0.9270702479687499</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.01567039188973</v>
+        <v>1.01725114179893</v>
       </c>
       <c r="J14">
-        <v>0.9582434631031665</v>
+        <v>0.9618556038487329</v>
       </c>
       <c r="K14">
-        <v>0.9753721941660208</v>
+        <v>0.9783326433601636</v>
       </c>
       <c r="L14">
-        <v>0.9226241318833346</v>
+        <v>0.9238833624156623</v>
       </c>
       <c r="M14">
-        <v>0.9409830627061748</v>
+        <v>0.9435312993234979</v>
+      </c>
+      <c r="N14">
+        <v>0.9632215491325781</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9269880567370286</v>
+        <v>0.9307865082609617</v>
       </c>
       <c r="D15">
-        <v>0.9608983995104385</v>
+        <v>0.9639145801742847</v>
       </c>
       <c r="E15">
-        <v>0.9071619631813579</v>
+        <v>0.9084436098941767</v>
       </c>
       <c r="F15">
-        <v>0.9261368638656106</v>
+        <v>0.9287343608080971</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.016312423194835</v>
+        <v>1.017889237907706</v>
       </c>
       <c r="J15">
-        <v>0.9595767941000252</v>
+        <v>0.9631811263280503</v>
       </c>
       <c r="K15">
-        <v>0.9765211344643205</v>
+        <v>0.9794747612527352</v>
       </c>
       <c r="L15">
-        <v>0.9239930321929853</v>
+        <v>0.9252436215213941</v>
       </c>
       <c r="M15">
-        <v>0.9425198562836644</v>
+        <v>0.9450579168975497</v>
+      </c>
+      <c r="N15">
+        <v>0.9645489540058556</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.936173731873298</v>
+        <v>0.9399145112385798</v>
       </c>
       <c r="D16">
-        <v>0.9680582071471096</v>
+        <v>0.9710338970545673</v>
       </c>
       <c r="E16">
-        <v>0.9156234852321667</v>
+        <v>0.9168565644455919</v>
       </c>
       <c r="F16">
-        <v>0.9355487672373419</v>
+        <v>0.9380873643717039</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.01992142219107</v>
+        <v>1.021477463819418</v>
       </c>
       <c r="J16">
-        <v>0.9670845849533226</v>
+        <v>0.9706477753221712</v>
       </c>
       <c r="K16">
-        <v>0.982990710389442</v>
+        <v>0.9859083252666505</v>
       </c>
       <c r="L16">
-        <v>0.9316620522638394</v>
+        <v>0.932867182260892</v>
       </c>
       <c r="M16">
-        <v>0.9511476627790116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9536320197876434</v>
+      </c>
+      <c r="N16">
+        <v>0.9720262064979845</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9416913066440439</v>
+        <v>0.9454001144087706</v>
       </c>
       <c r="D17">
-        <v>0.9723628435760385</v>
+        <v>0.9753161600519945</v>
       </c>
       <c r="E17">
-        <v>0.9206751203840889</v>
+        <v>0.9218816107333704</v>
       </c>
       <c r="F17">
-        <v>0.9411810340811949</v>
+        <v>0.9436871954083126</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.022082023484131</v>
+        <v>1.023626655625261</v>
       </c>
       <c r="J17">
-        <v>0.9715905259972273</v>
+        <v>0.9751311807700948</v>
       </c>
       <c r="K17">
-        <v>0.9868734492845832</v>
+        <v>0.9897712858844254</v>
       </c>
       <c r="L17">
-        <v>0.9362333074103922</v>
+        <v>0.9374135668240229</v>
       </c>
       <c r="M17">
-        <v>0.9563054495073205</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.95876030077866</v>
+      </c>
+      <c r="N17">
+        <v>0.9765159788958981</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9448296751911518</v>
+        <v>0.9485211302895541</v>
       </c>
       <c r="D18">
-        <v>0.9748125411206814</v>
+        <v>0.9777537391315835</v>
       </c>
       <c r="E18">
-        <v>0.9235382518939981</v>
+        <v>0.9247304134805505</v>
       </c>
       <c r="F18">
-        <v>0.9443777490839278</v>
+        <v>0.9468663713663797</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023308367991797</v>
+        <v>1.024846843871352</v>
       </c>
       <c r="J18">
-        <v>0.9741521380338829</v>
+        <v>0.9776806532462834</v>
       </c>
       <c r="K18">
-        <v>0.9890806835175415</v>
+        <v>0.9919678482880483</v>
       </c>
       <c r="L18">
-        <v>0.9388216505671909</v>
+        <v>0.9399885135673629</v>
       </c>
       <c r="M18">
-        <v>0.9592310190617586</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9616699394154792</v>
+      </c>
+      <c r="N18">
+        <v>0.9790690719154315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9458869041299217</v>
+        <v>0.9495726445581549</v>
       </c>
       <c r="D19">
-        <v>0.975637971584763</v>
+        <v>0.9785751827707394</v>
       </c>
       <c r="E19">
-        <v>0.9245011046452253</v>
+        <v>0.9256885633811891</v>
       </c>
       <c r="F19">
-        <v>0.9454535251708154</v>
+        <v>0.9479363815831698</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023721048917958</v>
+        <v>1.02525750340074</v>
       </c>
       <c r="J19">
-        <v>0.9750148465371993</v>
+        <v>0.9785393789878638</v>
       </c>
       <c r="K19">
-        <v>0.9898240235731326</v>
+        <v>0.9927076842333794</v>
       </c>
       <c r="L19">
-        <v>0.9396916728282902</v>
+        <v>0.9408541400995684</v>
       </c>
       <c r="M19">
-        <v>0.9602152389070923</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9626489260235735</v>
+      </c>
+      <c r="N19">
+        <v>0.9799290171460623</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9411077592964634</v>
+        <v>0.944819858909229</v>
       </c>
       <c r="D20">
-        <v>0.9719074450514946</v>
+        <v>0.9748630624705757</v>
       </c>
       <c r="E20">
-        <v>0.9201419369250678</v>
+        <v>0.9213511536629149</v>
       </c>
       <c r="F20">
-        <v>0.9405860912546679</v>
+        <v>0.9430955850138394</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.021853785810195</v>
+        <v>1.023399588800358</v>
       </c>
       <c r="J20">
-        <v>0.9711141112255072</v>
+        <v>0.974657076438212</v>
       </c>
       <c r="K20">
-        <v>0.9864629340974079</v>
+        <v>0.9893628003465522</v>
       </c>
       <c r="L20">
-        <v>0.9357510918861893</v>
+        <v>0.9369339008283789</v>
       </c>
       <c r="M20">
-        <v>0.9557608202519224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9582187003790484</v>
+      </c>
+      <c r="N20">
+        <v>0.9760412012814832</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9245727550774664</v>
+        <v>0.9283873606510649</v>
       </c>
       <c r="D21">
-        <v>0.9590172198183987</v>
+        <v>0.9620447693026963</v>
       </c>
       <c r="E21">
-        <v>0.9049261933219384</v>
+        <v>0.9062215806493665</v>
       </c>
       <c r="F21">
-        <v>0.9236545299399522</v>
+        <v>0.9262686135756164</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.015361132957536</v>
+        <v>1.016943805493113</v>
       </c>
       <c r="J21">
-        <v>0.9576014468063452</v>
+        <v>0.9612174041610646</v>
       </c>
       <c r="K21">
-        <v>0.9748189679673551</v>
+        <v>0.9777827504495341</v>
       </c>
       <c r="L21">
-        <v>0.9219642344756774</v>
+        <v>0.9232276905196768</v>
       </c>
       <c r="M21">
-        <v>0.9402425763280432</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9427957852918873</v>
+      </c>
+      <c r="N21">
+        <v>0.9625824431281506</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9132601957029467</v>
+        <v>0.9171565224542408</v>
       </c>
       <c r="D22">
-        <v>0.9502148065539695</v>
+        <v>0.9533000286032529</v>
       </c>
       <c r="E22">
-        <v>0.894392496120774</v>
+        <v>0.895758288906751</v>
       </c>
       <c r="F22">
-        <v>0.9119842771316877</v>
+        <v>0.9146828543548521</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.01089373349691</v>
+        <v>1.012506265609685</v>
       </c>
       <c r="J22">
-        <v>0.948343138305194</v>
+        <v>0.9520184920732417</v>
       </c>
       <c r="K22">
-        <v>0.9668415252451101</v>
+        <v>0.9698570800990978</v>
       </c>
       <c r="L22">
-        <v>0.9123927691117328</v>
+        <v>0.9137221781311607</v>
       </c>
       <c r="M22">
-        <v>0.9295271720001643</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9321576869596737</v>
+      </c>
+      <c r="N22">
+        <v>0.9533704675300331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9193556346248692</v>
+        <v>0.9232066446365929</v>
       </c>
       <c r="D23">
-        <v>0.9549559573789222</v>
+        <v>0.9580091669087052</v>
       </c>
       <c r="E23">
-        <v>0.9000810980488642</v>
+        <v>0.9014076662480662</v>
       </c>
       <c r="F23">
-        <v>0.918281543562375</v>
+        <v>0.920933147062344</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.013303214036133</v>
+        <v>1.014899143850241</v>
       </c>
       <c r="J23">
-        <v>0.9533329792981644</v>
+        <v>0.9569752806877824</v>
       </c>
       <c r="K23">
-        <v>0.9711409085005563</v>
+        <v>0.9741276762803843</v>
       </c>
       <c r="L23">
-        <v>0.9175643243772387</v>
+        <v>0.9188569848918209</v>
       </c>
       <c r="M23">
-        <v>0.935311043503133</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.937898553700079</v>
+      </c>
+      <c r="N23">
+        <v>0.958334295352958</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9413716843314767</v>
+        <v>0.945082292547251</v>
       </c>
       <c r="D24">
-        <v>0.972113407486027</v>
+        <v>0.9750679823666497</v>
       </c>
       <c r="E24">
-        <v>0.9203831152074688</v>
+        <v>0.921591096412152</v>
       </c>
       <c r="F24">
-        <v>0.94085519154439</v>
+        <v>0.94336317531369</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021957020559518</v>
+        <v>1.02350229297249</v>
       </c>
       <c r="J24">
-        <v>0.9713295868574366</v>
+        <v>0.9748715050170192</v>
       </c>
       <c r="K24">
-        <v>0.9866486045762536</v>
+        <v>0.989547551077812</v>
       </c>
       <c r="L24">
-        <v>0.9359692233843491</v>
+        <v>0.937150876921608</v>
       </c>
       <c r="M24">
-        <v>0.9560071688190643</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9584636764370791</v>
+      </c>
+      <c r="N24">
+        <v>0.976255934373468</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9638198281334747</v>
+        <v>0.9674179213772198</v>
       </c>
       <c r="D25">
-        <v>0.9896527582001043</v>
+        <v>0.9925291225984848</v>
       </c>
       <c r="E25">
-        <v>0.9407073080442412</v>
+        <v>0.9418236595445536</v>
       </c>
       <c r="F25">
-        <v>0.9636185206774764</v>
+        <v>0.966013587618869</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030683984511894</v>
+        <v>1.032189881352354</v>
       </c>
       <c r="J25">
-        <v>0.9896293106184961</v>
+        <v>0.9930938540807852</v>
       </c>
       <c r="K25">
-        <v>1.002413853956396</v>
+        <v>1.00524453208761</v>
       </c>
       <c r="L25">
-        <v>0.9543015333250466</v>
+        <v>0.9553976277179962</v>
       </c>
       <c r="M25">
-        <v>0.9768091504517723</v>
+        <v>0.9791634535009752</v>
+      </c>
+      <c r="N25">
+        <v>0.9945041612630373</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_14/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9834320329858023</v>
+        <v>1.007972574158195</v>
       </c>
       <c r="D2">
-        <v>1.005068742749822</v>
+        <v>1.028296297530256</v>
       </c>
       <c r="E2">
-        <v>0.956101914028195</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9821090916280988</v>
+        <v>1.02846974654023</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038342174615004</v>
+        <v>1.050878527594857</v>
       </c>
       <c r="J2">
-        <v>1.006119839415166</v>
+        <v>1.029917413952672</v>
       </c>
       <c r="K2">
-        <v>1.016457910736893</v>
+        <v>1.039375007896573</v>
       </c>
       <c r="L2">
-        <v>0.9682086987018323</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>0.9938234335019759</v>
+        <v>1.039546204649664</v>
       </c>
       <c r="N2">
-        <v>1.007548644990694</v>
+        <v>1.031380014813663</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9942385409061434</v>
+        <v>1.016256543227075</v>
       </c>
       <c r="D3">
-        <v>1.013537172113481</v>
+        <v>1.034941789139005</v>
       </c>
       <c r="E3">
-        <v>0.9656281856858695</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>0.9929051722959789</v>
+        <v>1.036025811674862</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042449498582912</v>
+        <v>1.053763353598621</v>
       </c>
       <c r="J3">
-        <v>1.014887510941688</v>
+        <v>1.036313639648785</v>
       </c>
       <c r="K3">
-        <v>1.02399972349808</v>
+        <v>1.04514628259794</v>
       </c>
       <c r="L3">
-        <v>0.97672060801701</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.003629644957615</v>
+        <v>1.046217587095499</v>
       </c>
       <c r="N3">
-        <v>1.01632876761645</v>
+        <v>1.037785323883922</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.000906562868065</v>
+        <v>1.021435899847542</v>
       </c>
       <c r="D4">
-        <v>1.018764161816919</v>
+        <v>1.039098569544583</v>
       </c>
       <c r="E4">
-        <v>0.9714613648178111</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>0.9995408430268717</v>
+        <v>1.040756663853632</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044963279269229</v>
+        <v>1.055550563536533</v>
       </c>
       <c r="J4">
-        <v>1.020287107069367</v>
+        <v>1.040306725233834</v>
       </c>
       <c r="K4">
-        <v>1.028641274301788</v>
+        <v>1.048746943762467</v>
       </c>
       <c r="L4">
-        <v>0.9819168827153941</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.009644812829428</v>
+        <v>1.050386870543354</v>
       </c>
       <c r="N4">
-        <v>1.021736031789972</v>
+        <v>1.041784080108516</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003639003086237</v>
+        <v>1.023572681527929</v>
       </c>
       <c r="D5">
-        <v>1.020906309698321</v>
+        <v>1.040813795013657</v>
       </c>
       <c r="E5">
-        <v>0.9738415793420195</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.002254324132105</v>
+        <v>1.042709880513633</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045988416488168</v>
+        <v>1.056283863138102</v>
       </c>
       <c r="J5">
-        <v>1.022497265434406</v>
+        <v>1.041952593635981</v>
       </c>
       <c r="K5">
-        <v>1.03054035224748</v>
+        <v>1.050230483372063</v>
       </c>
       <c r="L5">
-        <v>0.9840334915411247</v>
+        <v>0.9715596031702913</v>
       </c>
       <c r="M5">
-        <v>1.01210169811022</v>
+        <v>1.052106396944243</v>
       </c>
       <c r="N5">
-        <v>1.023949328833399</v>
+        <v>1.043432285832577</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.004093822063239</v>
+        <v>1.023929148146753</v>
       </c>
       <c r="D6">
-        <v>1.021262881576189</v>
+        <v>1.041099950929115</v>
       </c>
       <c r="E6">
-        <v>0.9742371910265393</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="F6">
-        <v>1.002705665232957</v>
+        <v>1.043035807307024</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046158759071903</v>
+        <v>1.056405956081053</v>
       </c>
       <c r="J6">
-        <v>1.022865002107348</v>
+        <v>1.042227073483027</v>
       </c>
       <c r="K6">
-        <v>1.030856281407385</v>
+        <v>1.050477856772315</v>
       </c>
       <c r="L6">
-        <v>0.9843850725818499</v>
+        <v>0.9717150950965047</v>
       </c>
       <c r="M6">
-        <v>1.012510191815355</v>
+        <v>1.052393220666886</v>
       </c>
       <c r="N6">
-        <v>1.024317587734596</v>
+        <v>1.043707155472489</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.000943343688695</v>
+        <v>1.02146460786772</v>
       </c>
       <c r="D7">
-        <v>1.01879299619006</v>
+        <v>1.039121612799099</v>
       </c>
       <c r="E7">
-        <v>0.9714934438106723</v>
+        <v>0.9600397355691361</v>
       </c>
       <c r="F7">
-        <v>0.9995773906623079</v>
+        <v>1.040782899973519</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044977098192076</v>
+        <v>1.055560431592209</v>
       </c>
       <c r="J7">
-        <v>1.020316867515799</v>
+        <v>1.040328843813581</v>
       </c>
       <c r="K7">
-        <v>1.028666849196128</v>
+        <v>1.048766883169244</v>
       </c>
       <c r="L7">
-        <v>0.9819454237091734</v>
+        <v>0.9706424616290571</v>
       </c>
       <c r="M7">
-        <v>1.009677915702881</v>
+        <v>1.050409974943821</v>
       </c>
       <c r="N7">
-        <v>1.021765834499653</v>
+        <v>1.041806230099183</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9871558268336887</v>
+        <v>1.010811349356744</v>
       </c>
       <c r="D8">
-        <v>1.007986392363284</v>
+        <v>1.030573122439764</v>
       </c>
       <c r="E8">
-        <v>0.9593945819855866</v>
+        <v>0.9542328392922299</v>
       </c>
       <c r="F8">
-        <v>0.9858351783724237</v>
+        <v>1.031057610184478</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039761892161555</v>
+        <v>1.05187054300722</v>
       </c>
       <c r="J8">
-        <v>1.009143287109314</v>
+        <v>1.032110518929777</v>
       </c>
       <c r="K8">
-        <v>1.019059258790754</v>
+        <v>1.041354293600024</v>
       </c>
       <c r="L8">
-        <v>0.9711541973385246</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>0.9972105024187501</v>
+        <v>1.041832699080907</v>
       </c>
       <c r="N8">
-        <v>1.010576386327362</v>
+        <v>1.033576234251388</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9599966954218225</v>
+        <v>0.9905164759009878</v>
       </c>
       <c r="D9">
-        <v>0.9867233027658316</v>
+        <v>1.014309757002679</v>
       </c>
       <c r="E9">
-        <v>0.9351423607762318</v>
+        <v>0.9435740419923924</v>
       </c>
       <c r="F9">
-        <v>0.9585144387269865</v>
+        <v>1.012590809747764</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029315822449956</v>
+        <v>1.044710168242314</v>
       </c>
       <c r="J9">
-        <v>0.9870457022331448</v>
+        <v>1.016408624607975</v>
       </c>
       <c r="K9">
-        <v>1.000035521659526</v>
+        <v>1.02717485760028</v>
       </c>
       <c r="L9">
-        <v>0.94938332913267</v>
+        <v>0.9576541208832517</v>
       </c>
       <c r="M9">
-        <v>0.9723184713108801</v>
+        <v>1.025482860130976</v>
       </c>
       <c r="N9">
-        <v>0.9884474203460404</v>
+        <v>1.017852041438617</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9392834019579931</v>
+        <v>0.9757418557727078</v>
       </c>
       <c r="D10">
-        <v>0.9705414082341046</v>
+        <v>1.002495917985779</v>
       </c>
       <c r="E10">
-        <v>0.9162769679152762</v>
+        <v>0.9361465105547279</v>
       </c>
       <c r="F10">
-        <v>0.937442117265294</v>
+        <v>0.9991983372896884</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.021229844516678</v>
+        <v>1.039413843688587</v>
       </c>
       <c r="J10">
-        <v>0.9701317798035135</v>
+        <v>1.004952119596903</v>
       </c>
       <c r="K10">
-        <v>0.9854637271968587</v>
+        <v>1.016820253619009</v>
       </c>
       <c r="L10">
-        <v>0.9323424432196727</v>
+        <v>0.9517730114689356</v>
       </c>
       <c r="M10">
-        <v>0.953040850959056</v>
+        <v>1.013582081105366</v>
       </c>
       <c r="N10">
-        <v>0.9715094782065052</v>
+        <v>1.00637926687635</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9294773628938868</v>
+        <v>0.9689888210599955</v>
       </c>
       <c r="D11">
-        <v>0.9628942047958733</v>
+        <v>0.997105210928418</v>
       </c>
       <c r="E11">
-        <v>0.9072316777648621</v>
+        <v>0.9328454960016259</v>
       </c>
       <c r="F11">
-        <v>0.9273892664810081</v>
+        <v>0.9930919403399785</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.017373458032341</v>
+        <v>1.036974746585953</v>
       </c>
       <c r="J11">
-        <v>0.962109641643178</v>
+        <v>0.9997111328615071</v>
       </c>
       <c r="K11">
-        <v>0.9785515308834709</v>
+        <v>1.012081925991968</v>
       </c>
       <c r="L11">
-        <v>0.9241442197151809</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9438239840807177</v>
+        <v>1.00814531908957</v>
       </c>
       <c r="N11">
-        <v>0.9634759476898296</v>
+        <v>1.00113083733864</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9256830480040502</v>
+        <v>0.9664208715058711</v>
       </c>
       <c r="D12">
-        <v>0.9599378443306503</v>
+        <v>0.9950569542579094</v>
       </c>
       <c r="E12">
-        <v>0.9037114263737269</v>
+        <v>0.9316058186411974</v>
       </c>
       <c r="F12">
-        <v>0.9234854055358238</v>
+        <v>0.9907723925398165</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.015877018298251</v>
+        <v>1.036044644666285</v>
       </c>
       <c r="J12">
-        <v>0.9590033125959734</v>
+        <v>0.9977176296544371</v>
       </c>
       <c r="K12">
-        <v>0.9758750393347532</v>
+        <v>1.010279471927814</v>
       </c>
       <c r="L12">
-        <v>0.9209491968981302</v>
+        <v>0.9481721277252509</v>
       </c>
       <c r="M12">
-        <v>0.9402415757686159</v>
+        <v>1.00607854026147</v>
       </c>
       <c r="N12">
-        <v>0.9603652072990773</v>
+        <v>0.9991345031283579</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9265043309879538</v>
+        <v>0.9669745111961112</v>
       </c>
       <c r="D13">
-        <v>0.9605776226686825</v>
+        <v>0.9954984709715635</v>
       </c>
       <c r="E13">
-        <v>0.904474363034885</v>
+        <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9243310807051411</v>
+        <v>0.991272360002814</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.0162011160349</v>
+        <v>1.036245285328889</v>
       </c>
       <c r="J13">
-        <v>0.9596757836665496</v>
+        <v>0.9981474424262601</v>
       </c>
       <c r="K13">
-        <v>0.9764544518657224</v>
+        <v>1.010668098627256</v>
       </c>
       <c r="L13">
-        <v>0.9216418515846431</v>
+        <v>0.9483836088965216</v>
       </c>
       <c r="M13">
-        <v>0.941017762209596</v>
+        <v>1.006524096823441</v>
       </c>
       <c r="N13">
-        <v>0.9610386333557069</v>
+        <v>0.9995649262836174</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9291670048268408</v>
+        <v>0.9687778080420001</v>
       </c>
       <c r="D14">
-        <v>0.9626523311201862</v>
+        <v>0.9969368668919654</v>
       </c>
       <c r="E14">
-        <v>0.9069441671831402</v>
+        <v>0.9327433047194317</v>
       </c>
       <c r="F14">
-        <v>0.9270702479687499</v>
+        <v>0.9929012864959126</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.01725114179893</v>
+        <v>1.036898370049999</v>
       </c>
       <c r="J14">
-        <v>0.9618556038487329</v>
+        <v>0.9995473329962697</v>
       </c>
       <c r="K14">
-        <v>0.9783326433601636</v>
+        <v>1.011933826572273</v>
       </c>
       <c r="L14">
-        <v>0.9238833624156623</v>
+        <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9435312993234979</v>
+        <v>1.00797547385308</v>
       </c>
       <c r="N14">
-        <v>0.9632215491325781</v>
+        <v>1.000966804858806</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9307865082609617</v>
+        <v>0.9698807834439328</v>
       </c>
       <c r="D15">
-        <v>0.9639145801742847</v>
+        <v>0.9978168780026803</v>
       </c>
       <c r="E15">
-        <v>0.9084436098941767</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>0.9287343608080971</v>
+        <v>0.9938979468933712</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.017889237907706</v>
+        <v>1.037297489611869</v>
       </c>
       <c r="J15">
-        <v>0.9631811263280503</v>
+        <v>1.000403502221548</v>
       </c>
       <c r="K15">
-        <v>0.9794747612527352</v>
+        <v>1.012707925276094</v>
       </c>
       <c r="L15">
-        <v>0.9252436215213941</v>
+        <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9450579168975497</v>
+        <v>1.008863290508069</v>
       </c>
       <c r="N15">
-        <v>0.9645489540058556</v>
+        <v>1.001824189942588</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9399145112385798</v>
+        <v>0.9761820387349406</v>
       </c>
       <c r="D16">
-        <v>0.9710338970545673</v>
+        <v>1.002847509868905</v>
       </c>
       <c r="E16">
-        <v>0.9168565644455919</v>
+        <v>0.9363637346017256</v>
       </c>
       <c r="F16">
-        <v>0.9380873643717039</v>
+        <v>0.9995966991451295</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021477463819418</v>
+        <v>1.039572466526782</v>
       </c>
       <c r="J16">
-        <v>0.9706477753221712</v>
+        <v>1.005293660912952</v>
       </c>
       <c r="K16">
-        <v>0.9859083252666505</v>
+        <v>1.017129014083605</v>
       </c>
       <c r="L16">
-        <v>0.932867182260892</v>
+        <v>0.9519451749175714</v>
       </c>
       <c r="M16">
-        <v>0.9536320197876434</v>
+        <v>1.013936539964264</v>
       </c>
       <c r="N16">
-        <v>0.9720262064979845</v>
+        <v>1.006721293220243</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9454001144087706</v>
+        <v>0.9800354205621191</v>
       </c>
       <c r="D17">
-        <v>0.9753161600519945</v>
+        <v>1.005926406400309</v>
       </c>
       <c r="E17">
-        <v>0.9218816107333704</v>
+        <v>0.9382760156855667</v>
       </c>
       <c r="F17">
-        <v>0.9436871954083126</v>
+        <v>1.003085677247735</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023626655625261</v>
+        <v>1.040959020156465</v>
       </c>
       <c r="J17">
-        <v>0.9751311807700948</v>
+        <v>1.008283033036403</v>
       </c>
       <c r="K17">
-        <v>0.9897712858844254</v>
+        <v>1.019831316087316</v>
       </c>
       <c r="L17">
-        <v>0.9374135668240229</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>0.95876030077866</v>
+        <v>1.017039818815185</v>
       </c>
       <c r="N17">
-        <v>0.9765159788958981</v>
+        <v>1.009714910594995</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9485211302895541</v>
+        <v>0.9822491945062134</v>
       </c>
       <c r="D18">
-        <v>0.9777537391315835</v>
+        <v>1.007696061511631</v>
       </c>
       <c r="E18">
-        <v>0.9247304134805505</v>
+        <v>0.9393832867215686</v>
       </c>
       <c r="F18">
-        <v>0.9468663713663797</v>
+        <v>1.005091472952001</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024846843871352</v>
+        <v>1.041753877126271</v>
       </c>
       <c r="J18">
-        <v>0.9776806532462834</v>
+        <v>1.009999995238728</v>
       </c>
       <c r="K18">
-        <v>0.9919678482880483</v>
+        <v>1.021383260186842</v>
       </c>
       <c r="L18">
-        <v>0.9399885135673629</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9616699394154792</v>
+        <v>1.01882289589673</v>
       </c>
       <c r="N18">
-        <v>0.9790690719154315</v>
+        <v>1.011434311080585</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9495726445581549</v>
+        <v>0.9829984657914005</v>
       </c>
       <c r="D19">
-        <v>0.9785751827707394</v>
+        <v>1.008295148858954</v>
       </c>
       <c r="E19">
-        <v>0.9256885633811891</v>
+        <v>0.9397594814684963</v>
       </c>
       <c r="F19">
-        <v>0.9479363815831698</v>
+        <v>1.005770577651709</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02525750340074</v>
+        <v>1.042022607438272</v>
       </c>
       <c r="J19">
-        <v>0.9785393789878638</v>
+        <v>1.010581038012255</v>
       </c>
       <c r="K19">
-        <v>0.9927076842333794</v>
+        <v>1.021908433409162</v>
       </c>
       <c r="L19">
-        <v>0.9408541400995684</v>
+        <v>0.9546352493816589</v>
       </c>
       <c r="M19">
-        <v>0.9626489260235735</v>
+        <v>1.019426428314897</v>
       </c>
       <c r="N19">
-        <v>0.9799290171460623</v>
+        <v>1.012016179001497</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.944819858909229</v>
+        <v>0.9796255305704462</v>
       </c>
       <c r="D20">
-        <v>0.9748630624705757</v>
+        <v>1.00559881192451</v>
       </c>
       <c r="E20">
-        <v>0.9213511536629149</v>
+        <v>0.9380716924660144</v>
       </c>
       <c r="F20">
-        <v>0.9430955850138394</v>
+        <v>1.002714404884566</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023399588800358</v>
+        <v>1.040811708325613</v>
       </c>
       <c r="J20">
-        <v>0.974657076438212</v>
+        <v>1.00796509349738</v>
       </c>
       <c r="K20">
-        <v>0.9893628003465522</v>
+        <v>1.019543922246724</v>
       </c>
       <c r="L20">
-        <v>0.9369339008283789</v>
+        <v>0.9532985019057445</v>
       </c>
       <c r="M20">
-        <v>0.9582187003790484</v>
+        <v>1.016709692089888</v>
       </c>
       <c r="N20">
-        <v>0.9760412012814832</v>
+        <v>1.009396519545358</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9283873606510649</v>
+        <v>0.968248481107294</v>
       </c>
       <c r="D21">
-        <v>0.9620447693026963</v>
+        <v>0.9965146027361067</v>
       </c>
       <c r="E21">
-        <v>0.9062215806493665</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9262686135756164</v>
+        <v>0.9924230718744274</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.016943805493113</v>
+        <v>1.036706738092183</v>
       </c>
       <c r="J21">
-        <v>0.9612174041610646</v>
+        <v>0.9991364324052349</v>
       </c>
       <c r="K21">
-        <v>0.9777827504495341</v>
+        <v>1.011562309273218</v>
       </c>
       <c r="L21">
-        <v>0.9232276905196768</v>
+        <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.9427957852918873</v>
+        <v>1.00754942750975</v>
       </c>
       <c r="N21">
-        <v>0.9625824431281506</v>
+        <v>1.000555320741801</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9171565224542408</v>
+        <v>0.9607467714212498</v>
       </c>
       <c r="D22">
-        <v>0.9533000286032529</v>
+        <v>0.9905345583365271</v>
       </c>
       <c r="E22">
-        <v>0.895758288906751</v>
+        <v>0.9288972953651159</v>
       </c>
       <c r="F22">
-        <v>0.9146828543548521</v>
+        <v>0.9856521270303267</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.012506265609685</v>
+        <v>1.03398489608544</v>
       </c>
       <c r="J22">
-        <v>0.9520184920732417</v>
+        <v>0.9933120179320618</v>
       </c>
       <c r="K22">
-        <v>0.9698570800990978</v>
+        <v>1.006295888828529</v>
       </c>
       <c r="L22">
-        <v>0.9137221781311607</v>
+        <v>0.9460223821572513</v>
       </c>
       <c r="M22">
-        <v>0.9321576869596737</v>
+        <v>1.001513279092095</v>
       </c>
       <c r="N22">
-        <v>0.9533704675300331</v>
+        <v>0.9947226349320062</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9232066446365929</v>
+        <v>0.9647589401437832</v>
       </c>
       <c r="D23">
-        <v>0.9580091669087052</v>
+        <v>0.9937318625804624</v>
       </c>
       <c r="E23">
-        <v>0.9014076662480662</v>
+        <v>0.9308081199963312</v>
       </c>
       <c r="F23">
-        <v>0.920933147062344</v>
+        <v>0.9892719665344922</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.014899143850241</v>
+        <v>1.03544198822747</v>
       </c>
       <c r="J23">
-        <v>0.9569752806877824</v>
+        <v>0.9964273400819241</v>
       </c>
       <c r="K23">
-        <v>0.9741276762803843</v>
+        <v>1.009112806426418</v>
       </c>
       <c r="L23">
-        <v>0.9188569848918209</v>
+        <v>0.9475391330285315</v>
       </c>
       <c r="M23">
-        <v>0.937898553700079</v>
+        <v>1.004741168675593</v>
       </c>
       <c r="N23">
-        <v>0.958334295352958</v>
+        <v>0.9978423811966537</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C24">
-        <v>0.945082292547251</v>
+        <v>0.9798108463314885</v>
       </c>
       <c r="D24">
-        <v>0.9750679823666497</v>
+        <v>1.005746918437603</v>
       </c>
       <c r="E24">
-        <v>0.921591096412152</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>0.94336317531369</v>
+        <v>1.002882256943717</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02350229297249</v>
+        <v>1.040878314981317</v>
       </c>
       <c r="J24">
-        <v>0.9748715050170192</v>
+        <v>1.008108838819577</v>
       </c>
       <c r="K24">
-        <v>0.989547551077812</v>
+        <v>1.019673857825613</v>
       </c>
       <c r="L24">
-        <v>0.937150876921608</v>
+        <v>0.9533716596442539</v>
       </c>
       <c r="M24">
-        <v>0.9584636764370791</v>
+        <v>1.016858945277996</v>
       </c>
       <c r="N24">
-        <v>0.976255934373468</v>
+        <v>1.009540469002401</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9674179213772198</v>
+        <v>0.9959645233664889</v>
       </c>
       <c r="D25">
-        <v>0.9925291225984848</v>
+        <v>1.018672040001805</v>
       </c>
       <c r="E25">
-        <v>0.9418236595445536</v>
+        <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>0.966013587618869</v>
+        <v>1.017540233529275</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032189881352354</v>
+        <v>1.046646903030809</v>
       </c>
       <c r="J25">
-        <v>0.9930938540807852</v>
+        <v>1.020628464821001</v>
       </c>
       <c r="K25">
-        <v>1.00524453208761</v>
+        <v>1.030987250066015</v>
       </c>
       <c r="L25">
-        <v>0.9553976277179962</v>
+        <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>0.9791634535009752</v>
+        <v>1.029872227989262</v>
       </c>
       <c r="N25">
-        <v>0.9945041612630373</v>
+        <v>1.022077874308768</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_14/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.007972574158195</v>
+        <v>1.029446156280987</v>
       </c>
       <c r="D2">
-        <v>1.028296297530256</v>
+        <v>1.04617895261329</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>1.03934556320967</v>
       </c>
       <c r="F2">
-        <v>1.02846974654023</v>
+        <v>1.051924324279798</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050878527594857</v>
+        <v>1.062662755585579</v>
       </c>
       <c r="J2">
-        <v>1.029917413952672</v>
+        <v>1.050780444738126</v>
       </c>
       <c r="K2">
-        <v>1.039375007896573</v>
+        <v>1.057030353227794</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>1.050282671756405</v>
       </c>
       <c r="M2">
-        <v>1.039546204649664</v>
+        <v>1.06270473550263</v>
       </c>
       <c r="N2">
-        <v>1.031380014813663</v>
+        <v>1.020361846237956</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016256543227075</v>
+        <v>1.034095562752919</v>
       </c>
       <c r="D3">
-        <v>1.034941789139005</v>
+        <v>1.049758031509398</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>1.043432003136912</v>
       </c>
       <c r="F3">
-        <v>1.036025811674862</v>
+        <v>1.056044681960808</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053763353598621</v>
+        <v>1.064432087320827</v>
       </c>
       <c r="J3">
-        <v>1.036313639648785</v>
+        <v>1.053698015130526</v>
       </c>
       <c r="K3">
-        <v>1.04514628259794</v>
+        <v>1.059791501363342</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>1.053537760459369</v>
       </c>
       <c r="M3">
-        <v>1.046217587095499</v>
+        <v>1.066007370607732</v>
       </c>
       <c r="N3">
-        <v>1.037785323883922</v>
+        <v>1.021359075257685</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021435899847542</v>
+        <v>1.037041493913003</v>
       </c>
       <c r="D4">
-        <v>1.039098569544583</v>
+        <v>1.052028783091038</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>1.046031312456153</v>
       </c>
       <c r="F4">
-        <v>1.040756663853632</v>
+        <v>1.058662398972989</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055550563536533</v>
+        <v>1.065543479769682</v>
       </c>
       <c r="J4">
-        <v>1.040306725233834</v>
+        <v>1.055542897579888</v>
       </c>
       <c r="K4">
-        <v>1.048746943762467</v>
+        <v>1.061537341626574</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>1.055604195227689</v>
       </c>
       <c r="M4">
-        <v>1.050386870543354</v>
+        <v>1.068100848195801</v>
       </c>
       <c r="N4">
-        <v>1.041784080108516</v>
+        <v>1.021989395516173</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023572681527929</v>
+        <v>1.038265520314903</v>
       </c>
       <c r="D5">
-        <v>1.040813795013657</v>
+        <v>1.052972945627584</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>1.047113690952999</v>
       </c>
       <c r="F5">
-        <v>1.042709880513633</v>
+        <v>1.059751687534841</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056283863138102</v>
+        <v>1.06600289963264</v>
       </c>
       <c r="J5">
-        <v>1.041952593635981</v>
+        <v>1.056308512776023</v>
       </c>
       <c r="K5">
-        <v>1.050230483372063</v>
+        <v>1.062261815539069</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>1.056463701076016</v>
       </c>
       <c r="M5">
-        <v>1.052106396944243</v>
+        <v>1.068970850653651</v>
       </c>
       <c r="N5">
-        <v>1.043432285832577</v>
+        <v>1.0222509060898</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023929148146753</v>
+        <v>1.038470207714716</v>
       </c>
       <c r="D6">
-        <v>1.041099950929115</v>
+        <v>1.053130871014621</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>1.047294829495443</v>
       </c>
       <c r="F6">
-        <v>1.043035807307024</v>
+        <v>1.059933938246249</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056405956081053</v>
+        <v>1.066079586105651</v>
       </c>
       <c r="J6">
-        <v>1.042227073483027</v>
+        <v>1.056436486995751</v>
       </c>
       <c r="K6">
-        <v>1.050477856772315</v>
+        <v>1.06238291036332</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>1.056607483795317</v>
       </c>
       <c r="M6">
-        <v>1.052393220666886</v>
+        <v>1.069116345186848</v>
       </c>
       <c r="N6">
-        <v>1.043707155472489</v>
+        <v>1.022294613950899</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02146460786772</v>
+        <v>1.037057905481704</v>
       </c>
       <c r="D7">
-        <v>1.039121612799099</v>
+        <v>1.052041439694165</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691361</v>
+        <v>1.046045815516792</v>
       </c>
       <c r="F7">
-        <v>1.040782899973519</v>
+        <v>1.058676997597775</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055560431592209</v>
+        <v>1.065549648980071</v>
       </c>
       <c r="J7">
-        <v>1.040328843813581</v>
+        <v>1.055553166548351</v>
       </c>
       <c r="K7">
-        <v>1.048766883169244</v>
+        <v>1.061547058945204</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290571</v>
+        <v>1.055615715826794</v>
       </c>
       <c r="M7">
-        <v>1.050409974943821</v>
+        <v>1.068112512453798</v>
       </c>
       <c r="N7">
-        <v>1.041806230099183</v>
+        <v>1.021992903357848</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.010811349356744</v>
+        <v>1.031030723546595</v>
       </c>
       <c r="D8">
-        <v>1.030573122439764</v>
+        <v>1.047398083041648</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922299</v>
+        <v>1.040736121539138</v>
       </c>
       <c r="F8">
-        <v>1.031057610184478</v>
+        <v>1.053327089834817</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05187054300722</v>
+        <v>1.063267770205911</v>
       </c>
       <c r="J8">
-        <v>1.032110518929777</v>
+        <v>1.051775546274877</v>
       </c>
       <c r="K8">
-        <v>1.041354293600024</v>
+        <v>1.057972126052449</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>1.051391182309597</v>
       </c>
       <c r="M8">
-        <v>1.041832699080907</v>
+        <v>1.063830097295885</v>
       </c>
       <c r="N8">
-        <v>1.033576234251388</v>
+        <v>1.020702024914441</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9905164759009878</v>
+        <v>1.019905766107358</v>
       </c>
       <c r="D9">
-        <v>1.014309757002679</v>
+        <v>1.038853555891689</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923924</v>
+        <v>1.031018140576548</v>
       </c>
       <c r="F9">
-        <v>1.012590809747764</v>
+        <v>1.043510228124417</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044710168242314</v>
+        <v>1.058980531534008</v>
       </c>
       <c r="J9">
-        <v>1.016408624607975</v>
+        <v>1.044774665257222</v>
       </c>
       <c r="K9">
-        <v>1.02717485760028</v>
+        <v>1.051346214546383</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832517</v>
+        <v>1.043627245907144</v>
       </c>
       <c r="M9">
-        <v>1.025482860130976</v>
+        <v>1.055934732115082</v>
       </c>
       <c r="N9">
-        <v>1.017852041438617</v>
+        <v>1.018307861029176</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9757418557727078</v>
+        <v>1.012112395245015</v>
       </c>
       <c r="D10">
-        <v>1.002495917985779</v>
+        <v>1.032889017261258</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547279</v>
+        <v>1.024269931157851</v>
       </c>
       <c r="F10">
-        <v>0.9991983372896884</v>
+        <v>1.03667587467096</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039413843688587</v>
+        <v>1.05592869049719</v>
       </c>
       <c r="J10">
-        <v>1.004952119596903</v>
+        <v>1.039853554429498</v>
       </c>
       <c r="K10">
-        <v>1.016820253619009</v>
+        <v>1.046688799751351</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689356</v>
+        <v>1.038214388024327</v>
       </c>
       <c r="M10">
-        <v>1.013582081105366</v>
+        <v>1.050413071882749</v>
       </c>
       <c r="N10">
-        <v>1.00637926687635</v>
+        <v>1.016624059250384</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9689888210599955</v>
+        <v>1.008639274584058</v>
       </c>
       <c r="D11">
-        <v>0.997105210928418</v>
+        <v>1.030236755223858</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016259</v>
+        <v>1.02127757613314</v>
       </c>
       <c r="F11">
-        <v>0.9930919403399785</v>
+        <v>1.033641077239547</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036974746585953</v>
+        <v>1.054557717764866</v>
       </c>
       <c r="J11">
-        <v>0.9997111328615071</v>
+        <v>1.037657014360791</v>
       </c>
       <c r="K11">
-        <v>1.012081925991968</v>
+        <v>1.044610122980541</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>1.035809082652995</v>
       </c>
       <c r="M11">
-        <v>1.00814531908957</v>
+        <v>1.047955285078127</v>
       </c>
       <c r="N11">
-        <v>1.00113083733864</v>
+        <v>1.015872368466652</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9664208715058711</v>
+        <v>1.007333554176969</v>
       </c>
       <c r="D12">
-        <v>0.9950569542579094</v>
+        <v>1.029240587583007</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>1.020154930565341</v>
       </c>
       <c r="F12">
-        <v>0.9907723925398165</v>
+        <v>1.032501861870609</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036044644666285</v>
+        <v>1.054040712362393</v>
       </c>
       <c r="J12">
-        <v>0.9977176296544371</v>
+        <v>1.036830755314684</v>
       </c>
       <c r="K12">
-        <v>1.010279471927814</v>
+        <v>1.043828236293724</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>1.034905919445603</v>
       </c>
       <c r="M12">
-        <v>1.00607854026147</v>
+        <v>1.047031789027654</v>
       </c>
       <c r="N12">
-        <v>0.9991345031283579</v>
+        <v>1.01558959795811</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9669745111961112</v>
+        <v>1.007614358007488</v>
       </c>
       <c r="D13">
-        <v>0.9954984709715635</v>
+        <v>1.029454775858285</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>1.020396256309414</v>
       </c>
       <c r="F13">
-        <v>0.991272360002814</v>
+        <v>1.032746778862313</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036245285328889</v>
+        <v>1.054151968675608</v>
       </c>
       <c r="J13">
-        <v>0.9981474424262601</v>
+        <v>1.037008468209301</v>
       </c>
       <c r="K13">
-        <v>1.010668098627256</v>
+        <v>1.043996403675986</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>1.035100099292367</v>
       </c>
       <c r="M13">
-        <v>1.006524096823441</v>
+        <v>1.047230368847015</v>
       </c>
       <c r="N13">
-        <v>0.9995649262836174</v>
+        <v>1.015650417020909</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9687778080420001</v>
+        <v>1.008531667656555</v>
       </c>
       <c r="D14">
-        <v>0.9969368668919654</v>
+        <v>1.030154639372984</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>1.021185008910843</v>
       </c>
       <c r="F14">
-        <v>0.9929012864959126</v>
+        <v>1.033547156966978</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036898370049999</v>
+        <v>1.054515142317666</v>
       </c>
       <c r="J14">
-        <v>0.9995473329962697</v>
+        <v>1.03758893001906</v>
       </c>
       <c r="K14">
-        <v>1.011933826572273</v>
+        <v>1.044545694141155</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>1.035734628227504</v>
       </c>
       <c r="M14">
-        <v>1.00797547385308</v>
+        <v>1.047879167242588</v>
       </c>
       <c r="N14">
-        <v>1.000966804858806</v>
+        <v>1.015849068165898</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9698807834439328</v>
+        <v>1.009094752506159</v>
       </c>
       <c r="D15">
-        <v>0.9978168780026803</v>
+        <v>1.03058437387579</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717474</v>
+        <v>1.021669489564056</v>
       </c>
       <c r="F15">
-        <v>0.9938979468933712</v>
+        <v>1.0340386928176</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037297489611869</v>
+        <v>1.054737866450466</v>
       </c>
       <c r="J15">
-        <v>1.000403502221548</v>
+        <v>1.037945182494646</v>
       </c>
       <c r="K15">
-        <v>1.012707925276094</v>
+        <v>1.044882820696656</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>1.036124278609872</v>
       </c>
       <c r="M15">
-        <v>1.008863290508069</v>
+        <v>1.048277497338997</v>
       </c>
       <c r="N15">
-        <v>1.001824189942588</v>
+        <v>1.015970986957027</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9761820387349406</v>
+        <v>1.012340748020266</v>
       </c>
       <c r="D16">
-        <v>1.002847509868905</v>
+        <v>1.033063527469639</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017256</v>
+        <v>1.024466993008775</v>
       </c>
       <c r="F16">
-        <v>0.9995966991451295</v>
+        <v>1.036875642260688</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039572466526782</v>
+        <v>1.056018606989436</v>
       </c>
       <c r="J16">
-        <v>1.005293660912952</v>
+        <v>1.03999790610849</v>
       </c>
       <c r="K16">
-        <v>1.017129014083605</v>
+        <v>1.046825410102155</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175714</v>
+        <v>1.038372683729636</v>
       </c>
       <c r="M16">
-        <v>1.013936539964264</v>
+        <v>1.050574734792043</v>
       </c>
       <c r="N16">
-        <v>1.006721293220243</v>
+        <v>1.016673456680718</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9800354205621191</v>
+        <v>1.014349916187725</v>
       </c>
       <c r="D17">
-        <v>1.005926406400309</v>
+        <v>1.034599633199284</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855667</v>
+        <v>1.026202561642706</v>
       </c>
       <c r="F17">
-        <v>1.003085677247735</v>
+        <v>1.038634555823416</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040959020156465</v>
+        <v>1.056808503627094</v>
       </c>
       <c r="J17">
-        <v>1.008283033036403</v>
+        <v>1.041267602093056</v>
       </c>
       <c r="K17">
-        <v>1.019831316087316</v>
+        <v>1.048027034383509</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>1.039766250310108</v>
       </c>
       <c r="M17">
-        <v>1.017039818815185</v>
+        <v>1.051997473157489</v>
       </c>
       <c r="N17">
-        <v>1.009714910594995</v>
+        <v>1.017107935806232</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9822491945062134</v>
+        <v>1.015512382495794</v>
       </c>
       <c r="D18">
-        <v>1.007696061511631</v>
+        <v>1.035488943293015</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215686</v>
+        <v>1.027208144576683</v>
       </c>
       <c r="F18">
-        <v>1.005091472952001</v>
+        <v>1.039653261710477</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041753877126271</v>
+        <v>1.057264483718557</v>
       </c>
       <c r="J18">
-        <v>1.009999995238728</v>
+        <v>1.042001894030775</v>
       </c>
       <c r="K18">
-        <v>1.021383260186842</v>
+        <v>1.048721973593175</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>1.040573194550062</v>
       </c>
       <c r="M18">
-        <v>1.01882289589673</v>
+        <v>1.052820917059986</v>
       </c>
       <c r="N18">
-        <v>1.011434311080585</v>
+        <v>1.017359191904306</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9829984657914005</v>
+        <v>1.01590717565943</v>
       </c>
       <c r="D19">
-        <v>1.008295148858954</v>
+        <v>1.035791058937374</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684963</v>
+        <v>1.027549895432505</v>
       </c>
       <c r="F19">
-        <v>1.005770577651709</v>
+        <v>1.039999404343575</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042022607438272</v>
+        <v>1.057419164482796</v>
       </c>
       <c r="J19">
-        <v>1.010581038012255</v>
+        <v>1.042251214604024</v>
       </c>
       <c r="K19">
-        <v>1.021908433409162</v>
+        <v>1.048957934513469</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816589</v>
+        <v>1.040847355226817</v>
       </c>
       <c r="M19">
-        <v>1.019426428314897</v>
+        <v>1.05310061715168</v>
       </c>
       <c r="N19">
-        <v>1.012016179001497</v>
+        <v>1.017444500783989</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9796255305704462</v>
+        <v>1.01413533456427</v>
       </c>
       <c r="D20">
-        <v>1.00559881192451</v>
+        <v>1.034435517783512</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660144</v>
+        <v>1.026017053308224</v>
       </c>
       <c r="F20">
-        <v>1.002714404884566</v>
+        <v>1.038446594094801</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040811708325613</v>
+        <v>1.05672424913829</v>
       </c>
       <c r="J20">
-        <v>1.00796509349738</v>
+        <v>1.041132030900277</v>
       </c>
       <c r="K20">
-        <v>1.019543922246724</v>
+        <v>1.047898729919059</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057445</v>
+        <v>1.039617347430062</v>
       </c>
       <c r="M20">
-        <v>1.016709692089888</v>
+        <v>1.051845493991536</v>
       </c>
       <c r="N20">
-        <v>1.009396519545358</v>
+        <v>1.017061545730775</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.968248481107294</v>
+        <v>1.008261981899447</v>
       </c>
       <c r="D21">
-        <v>0.9965146027361067</v>
+        <v>1.029948855226677</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>1.020953053663292</v>
       </c>
       <c r="F21">
-        <v>0.9924230718744274</v>
+        <v>1.033311800788774</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036706738092183</v>
+        <v>1.054408413832601</v>
       </c>
       <c r="J21">
-        <v>0.9991364324052349</v>
+        <v>1.037418288842322</v>
       </c>
       <c r="K21">
-        <v>1.011562309273218</v>
+        <v>1.044384215453626</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>1.035548047815864</v>
       </c>
       <c r="M21">
-        <v>1.00754942750975</v>
+        <v>1.047688408260478</v>
       </c>
       <c r="N21">
-        <v>1.000555320741801</v>
+        <v>1.015790669984332</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9607467714212498</v>
+        <v>1.004478169222714</v>
       </c>
       <c r="D22">
-        <v>0.9905345583365271</v>
+        <v>1.027063974402919</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651159</v>
+        <v>1.017704276972674</v>
       </c>
       <c r="F22">
-        <v>0.9856521270303267</v>
+        <v>1.030013838874341</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03398489608544</v>
+        <v>1.052907250459219</v>
       </c>
       <c r="J22">
-        <v>0.9933120179320618</v>
+        <v>1.035023061427702</v>
       </c>
       <c r="K22">
-        <v>1.006295888828529</v>
+        <v>1.042117701366838</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572513</v>
+        <v>1.032932982496199</v>
       </c>
       <c r="M22">
-        <v>1.001513279092095</v>
+        <v>1.045013276750792</v>
       </c>
       <c r="N22">
-        <v>0.9947226349320062</v>
+        <v>1.014970937942534</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9647589401437832</v>
+        <v>1.006492964186467</v>
       </c>
       <c r="D23">
-        <v>0.9937318625804624</v>
+        <v>1.028599557355285</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963312</v>
+        <v>1.019432866679215</v>
       </c>
       <c r="F23">
-        <v>0.9892719665344922</v>
+        <v>1.031768957228375</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03544198822747</v>
+        <v>1.053707436575351</v>
       </c>
       <c r="J23">
-        <v>0.9964273400819241</v>
+        <v>1.036298704451345</v>
       </c>
       <c r="K23">
-        <v>1.009112806426418</v>
+        <v>1.043324769838373</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285315</v>
+        <v>1.034324807994392</v>
       </c>
       <c r="M23">
-        <v>1.004741168675593</v>
+        <v>1.046437417711603</v>
       </c>
       <c r="N23">
-        <v>0.9978423811966537</v>
+        <v>1.015407511922434</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9798108463314885</v>
+        <v>1.014232323897218</v>
       </c>
       <c r="D24">
-        <v>1.005746918437603</v>
+        <v>1.034509695061877</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011821</v>
+        <v>1.026100897340915</v>
       </c>
       <c r="F24">
-        <v>1.002882256943717</v>
+        <v>1.038531548234088</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040878314981317</v>
+        <v>1.056762334780111</v>
       </c>
       <c r="J24">
-        <v>1.008108838819577</v>
+        <v>1.04119330911985</v>
       </c>
       <c r="K24">
-        <v>1.019673857825613</v>
+        <v>1.04795672353097</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442539</v>
+        <v>1.039684648428346</v>
       </c>
       <c r="M24">
-        <v>1.016858945277996</v>
+        <v>1.05191418662239</v>
       </c>
       <c r="N24">
-        <v>1.009540469002401</v>
+        <v>1.017082514097516</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9959645233664889</v>
+        <v>1.022845320733343</v>
       </c>
       <c r="D25">
-        <v>1.018672040001805</v>
+        <v>1.041107893792988</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>1.033575945449646</v>
       </c>
       <c r="F25">
-        <v>1.017540233529275</v>
+        <v>1.046097052101491</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046646903030809</v>
+        <v>1.060121890292408</v>
       </c>
       <c r="J25">
-        <v>1.020628464821001</v>
+        <v>1.046627571969573</v>
       </c>
       <c r="K25">
-        <v>1.030987250066015</v>
+        <v>1.053099900469776</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>1.045674474831822</v>
       </c>
       <c r="M25">
-        <v>1.029872227989262</v>
+        <v>1.058019563397953</v>
       </c>
       <c r="N25">
-        <v>1.022077874308768</v>
+        <v>1.018941696553471</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_14/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.029446156280987</v>
+        <v>1.051448455994865</v>
       </c>
       <c r="D2">
-        <v>1.04617895261329</v>
+        <v>1.057778894763602</v>
       </c>
       <c r="E2">
-        <v>1.03934556320967</v>
+        <v>1.062060961295877</v>
       </c>
       <c r="F2">
-        <v>1.051924324279798</v>
+        <v>1.070434443336732</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.062662755585579</v>
+        <v>1.051412423241218</v>
       </c>
       <c r="J2">
-        <v>1.050780444738126</v>
+        <v>1.056476274376347</v>
       </c>
       <c r="K2">
-        <v>1.057030353227794</v>
+        <v>1.060512931665655</v>
       </c>
       <c r="L2">
-        <v>1.050282671756405</v>
+        <v>1.064783331318106</v>
       </c>
       <c r="M2">
-        <v>1.06270473550263</v>
+        <v>1.073134290773742</v>
       </c>
       <c r="N2">
-        <v>1.020361846237956</v>
+        <v>1.022606431467129</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.034095562752919</v>
+        <v>1.052415881977283</v>
       </c>
       <c r="D3">
-        <v>1.049758031509398</v>
+        <v>1.05854435060914</v>
       </c>
       <c r="E3">
-        <v>1.043432003136912</v>
+        <v>1.062993405530945</v>
       </c>
       <c r="F3">
-        <v>1.056044681960808</v>
+        <v>1.071352091332666</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.064432087320827</v>
+        <v>1.051716714334461</v>
       </c>
       <c r="J3">
-        <v>1.053698015130526</v>
+        <v>1.057093700422855</v>
       </c>
       <c r="K3">
-        <v>1.059791501363342</v>
+        <v>1.061092413891692</v>
       </c>
       <c r="L3">
-        <v>1.053537760459369</v>
+        <v>1.065530221841768</v>
       </c>
       <c r="M3">
-        <v>1.066007370607732</v>
+        <v>1.07386804928142</v>
       </c>
       <c r="N3">
-        <v>1.021359075257685</v>
+        <v>1.022815308762946</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.037041493913003</v>
+        <v>1.053042139583332</v>
       </c>
       <c r="D4">
-        <v>1.052028783091038</v>
+        <v>1.059039910001685</v>
       </c>
       <c r="E4">
-        <v>1.046031312456153</v>
+        <v>1.063597842955952</v>
       </c>
       <c r="F4">
-        <v>1.058662398972989</v>
+        <v>1.071946631557209</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.065543479769682</v>
+        <v>1.051912489705265</v>
       </c>
       <c r="J4">
-        <v>1.055542897579888</v>
+        <v>1.057492848527447</v>
       </c>
       <c r="K4">
-        <v>1.061537341626574</v>
+        <v>1.061466972259166</v>
       </c>
       <c r="L4">
-        <v>1.055604195227689</v>
+        <v>1.066013962190819</v>
       </c>
       <c r="M4">
-        <v>1.068100848195801</v>
+        <v>1.074342965428181</v>
       </c>
       <c r="N4">
-        <v>1.021989395516173</v>
+        <v>1.022950259743203</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.038265520314903</v>
+        <v>1.053305481739483</v>
       </c>
       <c r="D5">
-        <v>1.052972945627584</v>
+        <v>1.059248303819954</v>
       </c>
       <c r="E5">
-        <v>1.047113690952999</v>
+        <v>1.063852206578993</v>
       </c>
       <c r="F5">
-        <v>1.059751687534841</v>
+        <v>1.072196757093486</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.06600289963264</v>
+        <v>1.05199452470393</v>
       </c>
       <c r="J5">
-        <v>1.056308512776023</v>
+        <v>1.057660561522775</v>
       </c>
       <c r="K5">
-        <v>1.062261815539069</v>
+        <v>1.061624338691483</v>
       </c>
       <c r="L5">
-        <v>1.056463701076016</v>
+        <v>1.066217433822144</v>
       </c>
       <c r="M5">
-        <v>1.068970850653651</v>
+        <v>1.074542649130929</v>
       </c>
       <c r="N5">
-        <v>1.0222509060898</v>
+        <v>1.023006943323905</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.038470207714716</v>
+        <v>1.053349701745097</v>
       </c>
       <c r="D6">
-        <v>1.053130871014621</v>
+        <v>1.059283297581186</v>
       </c>
       <c r="E6">
-        <v>1.047294829495443</v>
+        <v>1.063894930449665</v>
       </c>
       <c r="F6">
-        <v>1.059933938246249</v>
+        <v>1.072238764838593</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.066079586105651</v>
+        <v>1.05200828295367</v>
       </c>
       <c r="J6">
-        <v>1.056436486995751</v>
+        <v>1.057688716037972</v>
       </c>
       <c r="K6">
-        <v>1.06238291036332</v>
+        <v>1.061650755441839</v>
       </c>
       <c r="L6">
-        <v>1.056607483795317</v>
+        <v>1.066251603858657</v>
       </c>
       <c r="M6">
-        <v>1.069116345186848</v>
+        <v>1.07457617857073</v>
       </c>
       <c r="N6">
-        <v>1.022294613950899</v>
+        <v>1.023016457815348</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.037057905481704</v>
+        <v>1.053045658125721</v>
       </c>
       <c r="D7">
-        <v>1.052041439694165</v>
+        <v>1.059042694333256</v>
       </c>
       <c r="E7">
-        <v>1.046045815516792</v>
+        <v>1.063601240762487</v>
       </c>
       <c r="F7">
-        <v>1.058676997597775</v>
+        <v>1.071949973037929</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.065549648980071</v>
+        <v>1.051913586918438</v>
       </c>
       <c r="J7">
-        <v>1.055553166548351</v>
+        <v>1.057495089866897</v>
       </c>
       <c r="K7">
-        <v>1.061547058945204</v>
+        <v>1.061469075382909</v>
       </c>
       <c r="L7">
-        <v>1.055615715826794</v>
+        <v>1.066016680568886</v>
       </c>
       <c r="M7">
-        <v>1.068112512453798</v>
+        <v>1.074345633499131</v>
       </c>
       <c r="N7">
-        <v>1.021992903357848</v>
+        <v>1.022951017348148</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.031030723546595</v>
+        <v>1.051775346114019</v>
       </c>
       <c r="D8">
-        <v>1.047398083041648</v>
+        <v>1.058037529962028</v>
       </c>
       <c r="E8">
-        <v>1.040736121539138</v>
+        <v>1.062375860031313</v>
       </c>
       <c r="F8">
-        <v>1.053327089834817</v>
+        <v>1.070744408522773</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.063267770205911</v>
+        <v>1.051515491701684</v>
       </c>
       <c r="J8">
-        <v>1.051775546274877</v>
+        <v>1.05668501207587</v>
       </c>
       <c r="K8">
-        <v>1.057972126052449</v>
+        <v>1.060708853818954</v>
       </c>
       <c r="L8">
-        <v>1.051391182309597</v>
+        <v>1.065035652180317</v>
       </c>
       <c r="M8">
-        <v>1.063830097295885</v>
+        <v>1.073382241315964</v>
       </c>
       <c r="N8">
-        <v>1.020702024914441</v>
+        <v>1.02267706509313</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.019905766107358</v>
+        <v>1.049538983046836</v>
       </c>
       <c r="D9">
-        <v>1.038853555891689</v>
+        <v>1.056268332115336</v>
       </c>
       <c r="E9">
-        <v>1.031018140576548</v>
+        <v>1.060224939509735</v>
       </c>
       <c r="F9">
-        <v>1.043510228124417</v>
+        <v>1.068625931034483</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.058980531534008</v>
+        <v>1.050805432196789</v>
       </c>
       <c r="J9">
-        <v>1.044774665257222</v>
+        <v>1.055254769939895</v>
       </c>
       <c r="K9">
-        <v>1.051346214546383</v>
+        <v>1.059366179300555</v>
       </c>
       <c r="L9">
-        <v>1.043627245907144</v>
+        <v>1.063310466010015</v>
       </c>
       <c r="M9">
-        <v>1.055934732115082</v>
+        <v>1.071685627341684</v>
       </c>
       <c r="N9">
-        <v>1.018307861029176</v>
+        <v>1.022192759428425</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.012112395245015</v>
+        <v>1.048049523141602</v>
       </c>
       <c r="D10">
-        <v>1.032889017261258</v>
+        <v>1.055090301239965</v>
       </c>
       <c r="E10">
-        <v>1.024269931157851</v>
+        <v>1.058796687757337</v>
       </c>
       <c r="F10">
-        <v>1.03667587467096</v>
+        <v>1.067217641244279</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.05592869049719</v>
+        <v>1.050326331103516</v>
       </c>
       <c r="J10">
-        <v>1.039853554429498</v>
+        <v>1.054299451999676</v>
       </c>
       <c r="K10">
-        <v>1.046688799751351</v>
+        <v>1.05846905089421</v>
       </c>
       <c r="L10">
-        <v>1.038214388024327</v>
+        <v>1.062162766034779</v>
       </c>
       <c r="M10">
-        <v>1.050413071882749</v>
+        <v>1.070555289335952</v>
       </c>
       <c r="N10">
-        <v>1.016624059250384</v>
+        <v>1.021868856154031</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.008639274584058</v>
+        <v>1.047404922974612</v>
       </c>
       <c r="D11">
-        <v>1.030236755223858</v>
+        <v>1.054580555411641</v>
       </c>
       <c r="E11">
-        <v>1.02127757613314</v>
+        <v>1.058179605707091</v>
       </c>
       <c r="F11">
-        <v>1.033641077239547</v>
+        <v>1.066608807097382</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.054557717764866</v>
+        <v>1.050117522608667</v>
       </c>
       <c r="J11">
-        <v>1.037657014360791</v>
+        <v>1.053885365921842</v>
       </c>
       <c r="K11">
-        <v>1.044610122980541</v>
+        <v>1.058080117408099</v>
       </c>
       <c r="L11">
-        <v>1.035809082652995</v>
+        <v>1.06166638737284</v>
       </c>
       <c r="M11">
-        <v>1.047955285078127</v>
+        <v>1.070066028213932</v>
       </c>
       <c r="N11">
-        <v>1.015872368466652</v>
+        <v>1.021728361725186</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.007333554176969</v>
+        <v>1.047165542360352</v>
       </c>
       <c r="D12">
-        <v>1.029240587583007</v>
+        <v>1.054391266715083</v>
       </c>
       <c r="E12">
-        <v>1.020154930565341</v>
+        <v>1.057950599595523</v>
       </c>
       <c r="F12">
-        <v>1.032501861870609</v>
+        <v>1.06638280511494</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.054040712362393</v>
+        <v>1.050039758785563</v>
       </c>
       <c r="J12">
-        <v>1.036830755314684</v>
+        <v>1.05373149247045</v>
       </c>
       <c r="K12">
-        <v>1.043828236293724</v>
+        <v>1.057935580219597</v>
       </c>
       <c r="L12">
-        <v>1.034905919445603</v>
+        <v>1.061482098853895</v>
       </c>
       <c r="M12">
-        <v>1.047031789027654</v>
+        <v>1.06988432327932</v>
       </c>
       <c r="N12">
-        <v>1.01558959795811</v>
+        <v>1.021676139780732</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.007614358007488</v>
+        <v>1.047216887924705</v>
       </c>
       <c r="D13">
-        <v>1.029454775858285</v>
+        <v>1.054431867339532</v>
       </c>
       <c r="E13">
-        <v>1.020396256309414</v>
+        <v>1.057999712858135</v>
       </c>
       <c r="F13">
-        <v>1.032746778862313</v>
+        <v>1.066431276675409</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.054151968675608</v>
+        <v>1.050056448570722</v>
       </c>
       <c r="J13">
-        <v>1.037008468209301</v>
+        <v>1.053764501707497</v>
       </c>
       <c r="K13">
-        <v>1.043996403675986</v>
+        <v>1.057966587091083</v>
       </c>
       <c r="L13">
-        <v>1.035100099292367</v>
+        <v>1.061521625340145</v>
       </c>
       <c r="M13">
-        <v>1.047230368847015</v>
+        <v>1.069923298302271</v>
       </c>
       <c r="N13">
-        <v>1.015650417020909</v>
+        <v>1.021687343191559</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.008531667656555</v>
+        <v>1.047385134621874</v>
       </c>
       <c r="D14">
-        <v>1.030154639372984</v>
+        <v>1.054564907649022</v>
       </c>
       <c r="E14">
-        <v>1.021185008910843</v>
+        <v>1.058160671788261</v>
       </c>
       <c r="F14">
-        <v>1.033547156966978</v>
+        <v>1.066590122715074</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.054515142317666</v>
+        <v>1.050111098766318</v>
       </c>
       <c r="J14">
-        <v>1.03758893001906</v>
+        <v>1.053872647984417</v>
       </c>
       <c r="K14">
-        <v>1.044545694141155</v>
+        <v>1.058068171341934</v>
       </c>
       <c r="L14">
-        <v>1.035734628227504</v>
+        <v>1.061651152212655</v>
       </c>
       <c r="M14">
-        <v>1.047879167242588</v>
+        <v>1.07005100784169</v>
       </c>
       <c r="N14">
-        <v>1.015849068165898</v>
+        <v>1.021724045776654</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.009094752506159</v>
+        <v>1.047488803952453</v>
       </c>
       <c r="D15">
-        <v>1.03058437387579</v>
+        <v>1.054646885310678</v>
       </c>
       <c r="E15">
-        <v>1.021669489564056</v>
+        <v>1.058259871183967</v>
       </c>
       <c r="F15">
-        <v>1.0340386928176</v>
+        <v>1.066688012402123</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.054737866450466</v>
+        <v>1.050144743662992</v>
       </c>
       <c r="J15">
-        <v>1.037945182494646</v>
+        <v>1.053939272089504</v>
       </c>
       <c r="K15">
-        <v>1.044882820696656</v>
+        <v>1.058130751502735</v>
       </c>
       <c r="L15">
-        <v>1.036124278609872</v>
+        <v>1.06173096976718</v>
       </c>
       <c r="M15">
-        <v>1.048277497338997</v>
+        <v>1.070129697700618</v>
       </c>
       <c r="N15">
-        <v>1.015970986957027</v>
+        <v>1.021746654682379</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.012340748020266</v>
+        <v>1.04809231047154</v>
       </c>
       <c r="D16">
-        <v>1.033063527469639</v>
+        <v>1.055124138847032</v>
       </c>
       <c r="E16">
-        <v>1.024466993008775</v>
+        <v>1.058837670229525</v>
       </c>
       <c r="F16">
-        <v>1.036875642260688</v>
+        <v>1.067258067987747</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.056018606989436</v>
+        <v>1.050340160535501</v>
       </c>
       <c r="J16">
-        <v>1.03999790610849</v>
+        <v>1.054326924591932</v>
       </c>
       <c r="K16">
-        <v>1.046825410102155</v>
+        <v>1.05849485327283</v>
       </c>
       <c r="L16">
-        <v>1.038372683729636</v>
+        <v>1.06219572142266</v>
       </c>
       <c r="M16">
-        <v>1.050574734792043</v>
+        <v>1.07058776391827</v>
       </c>
       <c r="N16">
-        <v>1.016673456680718</v>
+        <v>1.021878175232047</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.014349916187725</v>
+        <v>1.048470967194731</v>
       </c>
       <c r="D17">
-        <v>1.034599633199284</v>
+        <v>1.055423601693548</v>
       </c>
       <c r="E17">
-        <v>1.026202561642706</v>
+        <v>1.059200473404473</v>
       </c>
       <c r="F17">
-        <v>1.038634555823416</v>
+        <v>1.067615907903098</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.056808503627094</v>
+        <v>1.050462378044031</v>
       </c>
       <c r="J17">
-        <v>1.041267602093056</v>
+        <v>1.054569974926464</v>
       </c>
       <c r="K17">
-        <v>1.048027034383509</v>
+        <v>1.058723119154949</v>
       </c>
       <c r="L17">
-        <v>1.039766250310108</v>
+        <v>1.062487404668706</v>
       </c>
       <c r="M17">
-        <v>1.051997473157489</v>
+        <v>1.070875146360196</v>
       </c>
       <c r="N17">
-        <v>1.017107935806232</v>
+        <v>1.021960609991268</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.015512382495794</v>
+        <v>1.048691864576885</v>
       </c>
       <c r="D18">
-        <v>1.035488943293015</v>
+        <v>1.055598306934092</v>
       </c>
       <c r="E18">
-        <v>1.027208144576683</v>
+        <v>1.059412221531301</v>
       </c>
       <c r="F18">
-        <v>1.039653261710477</v>
+        <v>1.067824722863115</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.057264483718557</v>
+        <v>1.050533534722867</v>
       </c>
       <c r="J18">
-        <v>1.042001894030775</v>
+        <v>1.054711700816426</v>
       </c>
       <c r="K18">
-        <v>1.048721973593175</v>
+        <v>1.058856217288062</v>
       </c>
       <c r="L18">
-        <v>1.040573194550062</v>
+        <v>1.062657594753341</v>
       </c>
       <c r="M18">
-        <v>1.052820917059986</v>
+        <v>1.071042789237721</v>
       </c>
       <c r="N18">
-        <v>1.017359191904306</v>
+        <v>1.022008669403531</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.01590717565943</v>
+        <v>1.04876719050839</v>
       </c>
       <c r="D19">
-        <v>1.035791058937374</v>
+        <v>1.055657882576265</v>
       </c>
       <c r="E19">
-        <v>1.027549895432505</v>
+        <v>1.059484444381543</v>
       </c>
       <c r="F19">
-        <v>1.039999404343575</v>
+        <v>1.067895939104592</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.057419164482796</v>
+        <v>1.050557775124229</v>
       </c>
       <c r="J19">
-        <v>1.042251214604024</v>
+        <v>1.054760018662329</v>
       </c>
       <c r="K19">
-        <v>1.048957934513469</v>
+        <v>1.05890159257153</v>
       </c>
       <c r="L19">
-        <v>1.040847355226817</v>
+        <v>1.062715634672303</v>
       </c>
       <c r="M19">
-        <v>1.05310061715168</v>
+        <v>1.071099954075498</v>
       </c>
       <c r="N19">
-        <v>1.017444500783989</v>
+        <v>1.022025052444211</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.01413533456427</v>
+        <v>1.048430337460616</v>
       </c>
       <c r="D20">
-        <v>1.034435517783512</v>
+        <v>1.055391468677715</v>
       </c>
       <c r="E20">
-        <v>1.026017053308224</v>
+        <v>1.059161534480407</v>
       </c>
       <c r="F20">
-        <v>1.038446594094801</v>
+        <v>1.067577505439466</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.05672424913829</v>
+        <v>1.050449278780323</v>
       </c>
       <c r="J20">
-        <v>1.041132030900277</v>
+        <v>1.054543902188036</v>
       </c>
       <c r="K20">
-        <v>1.047898729919059</v>
+        <v>1.058698633086057</v>
       </c>
       <c r="L20">
-        <v>1.039617347430062</v>
+        <v>1.062456103998241</v>
       </c>
       <c r="M20">
-        <v>1.051845493991536</v>
+        <v>1.070844311120366</v>
       </c>
       <c r="N20">
-        <v>1.017061545730775</v>
+        <v>1.021951767938537</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.008261981899447</v>
+        <v>1.047335588706162</v>
       </c>
       <c r="D21">
-        <v>1.029948855226677</v>
+        <v>1.054525729105188</v>
       </c>
       <c r="E21">
-        <v>1.020953053663292</v>
+        <v>1.058113267708445</v>
       </c>
       <c r="F21">
-        <v>1.033311800788774</v>
+        <v>1.066543342471999</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.054408413832601</v>
+        <v>1.050095011247356</v>
       </c>
       <c r="J21">
-        <v>1.037418288842322</v>
+        <v>1.053840803346912</v>
       </c>
       <c r="K21">
-        <v>1.044384215453626</v>
+        <v>1.058038259237322</v>
       </c>
       <c r="L21">
-        <v>1.035548047815864</v>
+        <v>1.061613007322535</v>
       </c>
       <c r="M21">
-        <v>1.047688408260478</v>
+        <v>1.070013399772686</v>
       </c>
       <c r="N21">
-        <v>1.015790669984332</v>
+        <v>1.021713238772892</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.004478169222714</v>
+        <v>1.046647581293612</v>
       </c>
       <c r="D22">
-        <v>1.027063974402919</v>
+        <v>1.053981714945501</v>
       </c>
       <c r="E22">
-        <v>1.017704276972674</v>
+        <v>1.057455371161004</v>
       </c>
       <c r="F22">
-        <v>1.030013838874341</v>
+        <v>1.065893969217595</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.052907250459219</v>
+        <v>1.049871094626449</v>
       </c>
       <c r="J22">
-        <v>1.035023061427702</v>
+        <v>1.053398370486458</v>
       </c>
       <c r="K22">
-        <v>1.042117701366838</v>
+        <v>1.05762265152641</v>
       </c>
       <c r="L22">
-        <v>1.032932982496199</v>
+        <v>1.061083432203097</v>
       </c>
       <c r="M22">
-        <v>1.045013276750792</v>
+        <v>1.069491137807406</v>
       </c>
       <c r="N22">
-        <v>1.014970937942534</v>
+        <v>1.021563057559959</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.006492964186467</v>
+        <v>1.047012277956251</v>
       </c>
       <c r="D23">
-        <v>1.028599557355285</v>
+        <v>1.054270077322625</v>
       </c>
       <c r="E23">
-        <v>1.019432866679215</v>
+        <v>1.057804021314971</v>
       </c>
       <c r="F23">
-        <v>1.031768957228375</v>
+        <v>1.066238133668197</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.053707436575351</v>
+        <v>1.049989908245658</v>
       </c>
       <c r="J23">
-        <v>1.036298704451345</v>
+        <v>1.053632947035103</v>
       </c>
       <c r="K23">
-        <v>1.043324769838373</v>
+        <v>1.057843011114013</v>
       </c>
       <c r="L23">
-        <v>1.034324807994392</v>
+        <v>1.061364121002436</v>
       </c>
       <c r="M23">
-        <v>1.046437417711603</v>
+        <v>1.069767982790075</v>
       </c>
       <c r="N23">
-        <v>1.015407511922434</v>
+        <v>1.021642691113115</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.014232323897218</v>
+        <v>1.048448696185613</v>
       </c>
       <c r="D24">
-        <v>1.034509695061877</v>
+        <v>1.055405988100611</v>
       </c>
       <c r="E24">
-        <v>1.026100897340915</v>
+        <v>1.059179128898901</v>
       </c>
       <c r="F24">
-        <v>1.038531548234088</v>
+        <v>1.067594857572542</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.056762334780111</v>
+        <v>1.050455198177683</v>
       </c>
       <c r="J24">
-        <v>1.04119330911985</v>
+        <v>1.054555683463762</v>
       </c>
       <c r="K24">
-        <v>1.04795672353097</v>
+        <v>1.058709697427219</v>
       </c>
       <c r="L24">
-        <v>1.039684648428346</v>
+        <v>1.062470247250399</v>
       </c>
       <c r="M24">
-        <v>1.05191418662239</v>
+        <v>1.070858244183772</v>
       </c>
       <c r="N24">
-        <v>1.017082514097516</v>
+        <v>1.021955763353854</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.022845320733343</v>
+        <v>1.050116884400561</v>
       </c>
       <c r="D25">
-        <v>1.041107893792988</v>
+        <v>1.05672546442932</v>
       </c>
       <c r="E25">
-        <v>1.033575945449646</v>
+        <v>1.060780005804429</v>
       </c>
       <c r="F25">
-        <v>1.046097052101491</v>
+        <v>1.069172903635301</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.060121890292408</v>
+        <v>1.050990011451322</v>
       </c>
       <c r="J25">
-        <v>1.046627571969573</v>
+        <v>1.055624846609723</v>
       </c>
       <c r="K25">
-        <v>1.053099900469776</v>
+        <v>1.059713651153187</v>
       </c>
       <c r="L25">
-        <v>1.045674474831822</v>
+        <v>1.063756045365187</v>
       </c>
       <c r="M25">
-        <v>1.058019563397953</v>
+        <v>1.072124117156851</v>
       </c>
       <c r="N25">
-        <v>1.018941696553471</v>
+        <v>1.022318147603484</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_14/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.051448455994865</v>
+        <v>1.029446156280988</v>
       </c>
       <c r="D2">
-        <v>1.057778894763602</v>
+        <v>1.046178952613292</v>
       </c>
       <c r="E2">
-        <v>1.062060961295877</v>
+        <v>1.03934556320967</v>
       </c>
       <c r="F2">
-        <v>1.070434443336732</v>
+        <v>1.051924324279799</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051412423241218</v>
+        <v>1.06266275558558</v>
       </c>
       <c r="J2">
-        <v>1.056476274376347</v>
+        <v>1.050780444738128</v>
       </c>
       <c r="K2">
-        <v>1.060512931665655</v>
+        <v>1.057030353227795</v>
       </c>
       <c r="L2">
-        <v>1.064783331318106</v>
+        <v>1.050282671756406</v>
       </c>
       <c r="M2">
-        <v>1.073134290773742</v>
+        <v>1.062704735502631</v>
       </c>
       <c r="N2">
-        <v>1.022606431467129</v>
+        <v>1.020361846237957</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.052415881977283</v>
+        <v>1.034095562752917</v>
       </c>
       <c r="D3">
-        <v>1.05854435060914</v>
+        <v>1.049758031509396</v>
       </c>
       <c r="E3">
-        <v>1.062993405530945</v>
+        <v>1.043432003136911</v>
       </c>
       <c r="F3">
-        <v>1.071352091332666</v>
+        <v>1.056044681960806</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051716714334461</v>
+        <v>1.064432087320825</v>
       </c>
       <c r="J3">
-        <v>1.057093700422855</v>
+        <v>1.053698015130524</v>
       </c>
       <c r="K3">
-        <v>1.061092413891692</v>
+        <v>1.059791501363339</v>
       </c>
       <c r="L3">
-        <v>1.065530221841768</v>
+        <v>1.053537760459367</v>
       </c>
       <c r="M3">
-        <v>1.07386804928142</v>
+        <v>1.06600737060773</v>
       </c>
       <c r="N3">
-        <v>1.022815308762946</v>
+        <v>1.021359075257685</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.053042139583332</v>
+        <v>1.037041493913003</v>
       </c>
       <c r="D4">
-        <v>1.059039910001685</v>
+        <v>1.052028783091037</v>
       </c>
       <c r="E4">
-        <v>1.063597842955952</v>
+        <v>1.046031312456152</v>
       </c>
       <c r="F4">
-        <v>1.071946631557209</v>
+        <v>1.058662398972989</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051912489705265</v>
+        <v>1.065543479769682</v>
       </c>
       <c r="J4">
-        <v>1.057492848527447</v>
+        <v>1.055542897579888</v>
       </c>
       <c r="K4">
-        <v>1.061466972259166</v>
+        <v>1.061537341626573</v>
       </c>
       <c r="L4">
-        <v>1.066013962190819</v>
+        <v>1.055604195227689</v>
       </c>
       <c r="M4">
-        <v>1.074342965428181</v>
+        <v>1.0681008481958</v>
       </c>
       <c r="N4">
-        <v>1.022950259743203</v>
+        <v>1.021989395516173</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.053305481739483</v>
+        <v>1.038265520314902</v>
       </c>
       <c r="D5">
-        <v>1.059248303819954</v>
+        <v>1.052972945627584</v>
       </c>
       <c r="E5">
-        <v>1.063852206578993</v>
+        <v>1.047113690952999</v>
       </c>
       <c r="F5">
-        <v>1.072196757093486</v>
+        <v>1.05975168753484</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05199452470393</v>
+        <v>1.066002899632639</v>
       </c>
       <c r="J5">
-        <v>1.057660561522775</v>
+        <v>1.056308512776022</v>
       </c>
       <c r="K5">
-        <v>1.061624338691483</v>
+        <v>1.062261815539068</v>
       </c>
       <c r="L5">
-        <v>1.066217433822144</v>
+        <v>1.056463701076016</v>
       </c>
       <c r="M5">
-        <v>1.074542649130929</v>
+        <v>1.068970850653651</v>
       </c>
       <c r="N5">
-        <v>1.023006943323905</v>
+        <v>1.022250906089799</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.053349701745097</v>
+        <v>1.038470207714717</v>
       </c>
       <c r="D6">
-        <v>1.059283297581186</v>
+        <v>1.053130871014622</v>
       </c>
       <c r="E6">
-        <v>1.063894930449665</v>
+        <v>1.047294829495443</v>
       </c>
       <c r="F6">
-        <v>1.072238764838593</v>
+        <v>1.05993393824625</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05200828295367</v>
+        <v>1.066079586105651</v>
       </c>
       <c r="J6">
-        <v>1.057688716037972</v>
+        <v>1.056436486995752</v>
       </c>
       <c r="K6">
-        <v>1.061650755441839</v>
+        <v>1.06238291036332</v>
       </c>
       <c r="L6">
-        <v>1.066251603858657</v>
+        <v>1.056607483795318</v>
       </c>
       <c r="M6">
-        <v>1.07457617857073</v>
+        <v>1.069116345186848</v>
       </c>
       <c r="N6">
-        <v>1.023016457815348</v>
+        <v>1.022294613950899</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.053045658125721</v>
+        <v>1.037057905481704</v>
       </c>
       <c r="D7">
-        <v>1.059042694333256</v>
+        <v>1.052041439694165</v>
       </c>
       <c r="E7">
-        <v>1.063601240762487</v>
+        <v>1.046045815516792</v>
       </c>
       <c r="F7">
-        <v>1.071949973037929</v>
+        <v>1.058676997597775</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051913586918438</v>
+        <v>1.065549648980071</v>
       </c>
       <c r="J7">
-        <v>1.057495089866897</v>
+        <v>1.055553166548351</v>
       </c>
       <c r="K7">
-        <v>1.061469075382909</v>
+        <v>1.061547058945204</v>
       </c>
       <c r="L7">
-        <v>1.066016680568886</v>
+        <v>1.055615715826794</v>
       </c>
       <c r="M7">
-        <v>1.074345633499131</v>
+        <v>1.068112512453798</v>
       </c>
       <c r="N7">
-        <v>1.022951017348148</v>
+        <v>1.021992903357848</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.051775346114019</v>
+        <v>1.031030723546596</v>
       </c>
       <c r="D8">
-        <v>1.058037529962028</v>
+        <v>1.047398083041649</v>
       </c>
       <c r="E8">
-        <v>1.062375860031313</v>
+        <v>1.040736121539138</v>
       </c>
       <c r="F8">
-        <v>1.070744408522773</v>
+        <v>1.053327089834817</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051515491701684</v>
+        <v>1.063267770205911</v>
       </c>
       <c r="J8">
-        <v>1.05668501207587</v>
+        <v>1.051775546274877</v>
       </c>
       <c r="K8">
-        <v>1.060708853818954</v>
+        <v>1.05797212605245</v>
       </c>
       <c r="L8">
-        <v>1.065035652180317</v>
+        <v>1.051391182309597</v>
       </c>
       <c r="M8">
-        <v>1.073382241315964</v>
+        <v>1.063830097295885</v>
       </c>
       <c r="N8">
-        <v>1.02267706509313</v>
+        <v>1.020702024914442</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.049538983046836</v>
+        <v>1.019905766107357</v>
       </c>
       <c r="D9">
-        <v>1.056268332115336</v>
+        <v>1.038853555891688</v>
       </c>
       <c r="E9">
-        <v>1.060224939509735</v>
+        <v>1.031018140576547</v>
       </c>
       <c r="F9">
-        <v>1.068625931034483</v>
+        <v>1.043510228124416</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050805432196789</v>
+        <v>1.058980531534008</v>
       </c>
       <c r="J9">
-        <v>1.055254769939895</v>
+        <v>1.044774665257221</v>
       </c>
       <c r="K9">
-        <v>1.059366179300555</v>
+        <v>1.051346214546382</v>
       </c>
       <c r="L9">
-        <v>1.063310466010015</v>
+        <v>1.043627245907144</v>
       </c>
       <c r="M9">
-        <v>1.071685627341684</v>
+        <v>1.055934732115081</v>
       </c>
       <c r="N9">
-        <v>1.022192759428425</v>
+        <v>1.018307861029175</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.048049523141602</v>
+        <v>1.012112395245016</v>
       </c>
       <c r="D10">
-        <v>1.055090301239965</v>
+        <v>1.032889017261258</v>
       </c>
       <c r="E10">
-        <v>1.058796687757337</v>
+        <v>1.024269931157852</v>
       </c>
       <c r="F10">
-        <v>1.067217641244279</v>
+        <v>1.03667587467096</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050326331103516</v>
+        <v>1.05592869049719</v>
       </c>
       <c r="J10">
-        <v>1.054299451999676</v>
+        <v>1.039853554429498</v>
       </c>
       <c r="K10">
-        <v>1.05846905089421</v>
+        <v>1.046688799751352</v>
       </c>
       <c r="L10">
-        <v>1.062162766034779</v>
+        <v>1.038214388024328</v>
       </c>
       <c r="M10">
-        <v>1.070555289335952</v>
+        <v>1.05041307188275</v>
       </c>
       <c r="N10">
-        <v>1.021868856154031</v>
+        <v>1.016624059250384</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.047404922974612</v>
+        <v>1.008639274584058</v>
       </c>
       <c r="D11">
-        <v>1.054580555411641</v>
+        <v>1.030236755223858</v>
       </c>
       <c r="E11">
-        <v>1.058179605707091</v>
+        <v>1.021277576133141</v>
       </c>
       <c r="F11">
-        <v>1.066608807097382</v>
+        <v>1.033641077239547</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050117522608667</v>
+        <v>1.054557717764866</v>
       </c>
       <c r="J11">
-        <v>1.053885365921842</v>
+        <v>1.037657014360791</v>
       </c>
       <c r="K11">
-        <v>1.058080117408099</v>
+        <v>1.044610122980541</v>
       </c>
       <c r="L11">
-        <v>1.06166638737284</v>
+        <v>1.035809082652996</v>
       </c>
       <c r="M11">
-        <v>1.070066028213932</v>
+        <v>1.047955285078127</v>
       </c>
       <c r="N11">
-        <v>1.021728361725186</v>
+        <v>1.015872368466652</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.047165542360352</v>
+        <v>1.007333554176968</v>
       </c>
       <c r="D12">
-        <v>1.054391266715083</v>
+        <v>1.029240587583007</v>
       </c>
       <c r="E12">
-        <v>1.057950599595523</v>
+        <v>1.020154930565341</v>
       </c>
       <c r="F12">
-        <v>1.06638280511494</v>
+        <v>1.032501861870609</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050039758785563</v>
+        <v>1.054040712362393</v>
       </c>
       <c r="J12">
-        <v>1.05373149247045</v>
+        <v>1.036830755314684</v>
       </c>
       <c r="K12">
-        <v>1.057935580219597</v>
+        <v>1.043828236293724</v>
       </c>
       <c r="L12">
-        <v>1.061482098853895</v>
+        <v>1.034905919445603</v>
       </c>
       <c r="M12">
-        <v>1.06988432327932</v>
+        <v>1.047031789027653</v>
       </c>
       <c r="N12">
-        <v>1.021676139780732</v>
+        <v>1.01558959795811</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.047216887924705</v>
+        <v>1.007614358007488</v>
       </c>
       <c r="D13">
-        <v>1.054431867339532</v>
+        <v>1.029454775858285</v>
       </c>
       <c r="E13">
-        <v>1.057999712858135</v>
+        <v>1.020396256309414</v>
       </c>
       <c r="F13">
-        <v>1.066431276675409</v>
+        <v>1.032746778862314</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050056448570722</v>
+        <v>1.054151968675608</v>
       </c>
       <c r="J13">
-        <v>1.053764501707497</v>
+        <v>1.037008468209301</v>
       </c>
       <c r="K13">
-        <v>1.057966587091083</v>
+        <v>1.043996403675987</v>
       </c>
       <c r="L13">
-        <v>1.061521625340145</v>
+        <v>1.035100099292367</v>
       </c>
       <c r="M13">
-        <v>1.069923298302271</v>
+        <v>1.047230368847015</v>
       </c>
       <c r="N13">
-        <v>1.021687343191559</v>
+        <v>1.015650417020909</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.047385134621874</v>
+        <v>1.008531667656554</v>
       </c>
       <c r="D14">
-        <v>1.054564907649022</v>
+        <v>1.030154639372984</v>
       </c>
       <c r="E14">
-        <v>1.058160671788261</v>
+        <v>1.021185008910842</v>
       </c>
       <c r="F14">
-        <v>1.066590122715074</v>
+        <v>1.033547156966978</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050111098766318</v>
+        <v>1.054515142317666</v>
       </c>
       <c r="J14">
-        <v>1.053872647984417</v>
+        <v>1.03758893001906</v>
       </c>
       <c r="K14">
-        <v>1.058068171341934</v>
+        <v>1.044545694141155</v>
       </c>
       <c r="L14">
-        <v>1.061651152212655</v>
+        <v>1.035734628227504</v>
       </c>
       <c r="M14">
-        <v>1.07005100784169</v>
+        <v>1.047879167242588</v>
       </c>
       <c r="N14">
-        <v>1.021724045776654</v>
+        <v>1.015849068165898</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.047488803952453</v>
+        <v>1.009094752506159</v>
       </c>
       <c r="D15">
-        <v>1.054646885310678</v>
+        <v>1.030584373875789</v>
       </c>
       <c r="E15">
-        <v>1.058259871183967</v>
+        <v>1.021669489564056</v>
       </c>
       <c r="F15">
-        <v>1.066688012402123</v>
+        <v>1.0340386928176</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050144743662992</v>
+        <v>1.054737866450465</v>
       </c>
       <c r="J15">
-        <v>1.053939272089504</v>
+        <v>1.037945182494645</v>
       </c>
       <c r="K15">
-        <v>1.058130751502735</v>
+        <v>1.044882820696655</v>
       </c>
       <c r="L15">
-        <v>1.06173096976718</v>
+        <v>1.036124278609871</v>
       </c>
       <c r="M15">
-        <v>1.070129697700618</v>
+        <v>1.048277497338997</v>
       </c>
       <c r="N15">
-        <v>1.021746654682379</v>
+        <v>1.015970986957026</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.04809231047154</v>
+        <v>1.012340748020266</v>
       </c>
       <c r="D16">
-        <v>1.055124138847032</v>
+        <v>1.03306352746964</v>
       </c>
       <c r="E16">
-        <v>1.058837670229525</v>
+        <v>1.024466993008775</v>
       </c>
       <c r="F16">
-        <v>1.067258067987747</v>
+        <v>1.036875642260688</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050340160535501</v>
+        <v>1.056018606989436</v>
       </c>
       <c r="J16">
-        <v>1.054326924591932</v>
+        <v>1.03999790610849</v>
       </c>
       <c r="K16">
-        <v>1.05849485327283</v>
+        <v>1.046825410102155</v>
       </c>
       <c r="L16">
-        <v>1.06219572142266</v>
+        <v>1.038372683729637</v>
       </c>
       <c r="M16">
-        <v>1.07058776391827</v>
+        <v>1.050574734792044</v>
       </c>
       <c r="N16">
-        <v>1.021878175232047</v>
+        <v>1.016673456680718</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.048470967194731</v>
+        <v>1.014349916187724</v>
       </c>
       <c r="D17">
-        <v>1.055423601693548</v>
+        <v>1.034599633199283</v>
       </c>
       <c r="E17">
-        <v>1.059200473404473</v>
+        <v>1.026202561642706</v>
       </c>
       <c r="F17">
-        <v>1.067615907903098</v>
+        <v>1.038634555823416</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050462378044031</v>
+        <v>1.056808503627094</v>
       </c>
       <c r="J17">
-        <v>1.054569974926464</v>
+        <v>1.041267602093055</v>
       </c>
       <c r="K17">
-        <v>1.058723119154949</v>
+        <v>1.048027034383507</v>
       </c>
       <c r="L17">
-        <v>1.062487404668706</v>
+        <v>1.039766250310108</v>
       </c>
       <c r="M17">
-        <v>1.070875146360196</v>
+        <v>1.051997473157488</v>
       </c>
       <c r="N17">
-        <v>1.021960609991268</v>
+        <v>1.017107935806232</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.048691864576885</v>
+        <v>1.015512382495795</v>
       </c>
       <c r="D18">
-        <v>1.055598306934092</v>
+        <v>1.035488943293016</v>
       </c>
       <c r="E18">
-        <v>1.059412221531301</v>
+        <v>1.027208144576684</v>
       </c>
       <c r="F18">
-        <v>1.067824722863115</v>
+        <v>1.039653261710478</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050533534722867</v>
+        <v>1.057264483718557</v>
       </c>
       <c r="J18">
-        <v>1.054711700816426</v>
+        <v>1.042001894030777</v>
       </c>
       <c r="K18">
-        <v>1.058856217288062</v>
+        <v>1.048721973593176</v>
       </c>
       <c r="L18">
-        <v>1.062657594753341</v>
+        <v>1.040573194550063</v>
       </c>
       <c r="M18">
-        <v>1.071042789237721</v>
+        <v>1.052820917059987</v>
       </c>
       <c r="N18">
-        <v>1.022008669403531</v>
+        <v>1.017359191904306</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.04876719050839</v>
+        <v>1.015907175659431</v>
       </c>
       <c r="D19">
-        <v>1.055657882576265</v>
+        <v>1.035791058937375</v>
       </c>
       <c r="E19">
-        <v>1.059484444381543</v>
+        <v>1.027549895432506</v>
       </c>
       <c r="F19">
-        <v>1.067895939104592</v>
+        <v>1.039999404343576</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050557775124229</v>
+        <v>1.057419164482797</v>
       </c>
       <c r="J19">
-        <v>1.054760018662329</v>
+        <v>1.042251214604025</v>
       </c>
       <c r="K19">
-        <v>1.05890159257153</v>
+        <v>1.04895793451347</v>
       </c>
       <c r="L19">
-        <v>1.062715634672303</v>
+        <v>1.040847355226818</v>
       </c>
       <c r="M19">
-        <v>1.071099954075498</v>
+        <v>1.053100617151681</v>
       </c>
       <c r="N19">
-        <v>1.022025052444211</v>
+        <v>1.017444500783989</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.048430337460616</v>
+        <v>1.014135334564269</v>
       </c>
       <c r="D20">
-        <v>1.055391468677715</v>
+        <v>1.034435517783512</v>
       </c>
       <c r="E20">
-        <v>1.059161534480407</v>
+        <v>1.026017053308224</v>
       </c>
       <c r="F20">
-        <v>1.067577505439466</v>
+        <v>1.0384465940948</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050449278780323</v>
+        <v>1.05672424913829</v>
       </c>
       <c r="J20">
-        <v>1.054543902188036</v>
+        <v>1.041132030900277</v>
       </c>
       <c r="K20">
-        <v>1.058698633086057</v>
+        <v>1.047898729919058</v>
       </c>
       <c r="L20">
-        <v>1.062456103998241</v>
+        <v>1.039617347430062</v>
       </c>
       <c r="M20">
-        <v>1.070844311120366</v>
+        <v>1.051845493991535</v>
       </c>
       <c r="N20">
-        <v>1.021951767938537</v>
+        <v>1.017061545730775</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.047335588706162</v>
+        <v>1.008261981899446</v>
       </c>
       <c r="D21">
-        <v>1.054525729105188</v>
+        <v>1.029948855226676</v>
       </c>
       <c r="E21">
-        <v>1.058113267708445</v>
+        <v>1.020953053663291</v>
       </c>
       <c r="F21">
-        <v>1.066543342471999</v>
+        <v>1.033311800788773</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050095011247356</v>
+        <v>1.0544084138326</v>
       </c>
       <c r="J21">
-        <v>1.053840803346912</v>
+        <v>1.037418288842321</v>
       </c>
       <c r="K21">
-        <v>1.058038259237322</v>
+        <v>1.044384215453625</v>
       </c>
       <c r="L21">
-        <v>1.061613007322535</v>
+        <v>1.035548047815863</v>
       </c>
       <c r="M21">
-        <v>1.070013399772686</v>
+        <v>1.047688408260477</v>
       </c>
       <c r="N21">
-        <v>1.021713238772892</v>
+        <v>1.015790669984332</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.046647581293612</v>
+        <v>1.004478169222715</v>
       </c>
       <c r="D22">
-        <v>1.053981714945501</v>
+        <v>1.02706397440292</v>
       </c>
       <c r="E22">
-        <v>1.057455371161004</v>
+        <v>1.017704276972675</v>
       </c>
       <c r="F22">
-        <v>1.065893969217595</v>
+        <v>1.030013838874341</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049871094626449</v>
+        <v>1.052907250459219</v>
       </c>
       <c r="J22">
-        <v>1.053398370486458</v>
+        <v>1.035023061427702</v>
       </c>
       <c r="K22">
-        <v>1.05762265152641</v>
+        <v>1.042117701366839</v>
       </c>
       <c r="L22">
-        <v>1.061083432203097</v>
+        <v>1.0329329824962</v>
       </c>
       <c r="M22">
-        <v>1.069491137807406</v>
+        <v>1.045013276750793</v>
       </c>
       <c r="N22">
-        <v>1.021563057559959</v>
+        <v>1.014970937942534</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.047012277956251</v>
+        <v>1.006492964186468</v>
       </c>
       <c r="D23">
-        <v>1.054270077322625</v>
+        <v>1.028599557355287</v>
       </c>
       <c r="E23">
-        <v>1.057804021314971</v>
+        <v>1.019432866679217</v>
       </c>
       <c r="F23">
-        <v>1.066238133668197</v>
+        <v>1.031768957228377</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049989908245658</v>
+        <v>1.053707436575352</v>
       </c>
       <c r="J23">
-        <v>1.053632947035103</v>
+        <v>1.036298704451346</v>
       </c>
       <c r="K23">
-        <v>1.057843011114013</v>
+        <v>1.043324769838375</v>
       </c>
       <c r="L23">
-        <v>1.061364121002436</v>
+        <v>1.034324807994393</v>
       </c>
       <c r="M23">
-        <v>1.069767982790075</v>
+        <v>1.046437417711605</v>
       </c>
       <c r="N23">
-        <v>1.021642691113115</v>
+        <v>1.015407511922435</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.048448696185613</v>
+        <v>1.014232323897218</v>
       </c>
       <c r="D24">
-        <v>1.055405988100611</v>
+        <v>1.034509695061877</v>
       </c>
       <c r="E24">
-        <v>1.059179128898901</v>
+        <v>1.026100897340915</v>
       </c>
       <c r="F24">
-        <v>1.067594857572542</v>
+        <v>1.038531548234088</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050455198177683</v>
+        <v>1.056762334780111</v>
       </c>
       <c r="J24">
-        <v>1.054555683463762</v>
+        <v>1.04119330911985</v>
       </c>
       <c r="K24">
-        <v>1.058709697427219</v>
+        <v>1.04795672353097</v>
       </c>
       <c r="L24">
-        <v>1.062470247250399</v>
+        <v>1.039684648428346</v>
       </c>
       <c r="M24">
-        <v>1.070858244183772</v>
+        <v>1.05191418662239</v>
       </c>
       <c r="N24">
-        <v>1.021955763353854</v>
+        <v>1.017082514097516</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.050116884400561</v>
+        <v>1.022845320733345</v>
       </c>
       <c r="D25">
-        <v>1.05672546442932</v>
+        <v>1.041107893792989</v>
       </c>
       <c r="E25">
-        <v>1.060780005804429</v>
+        <v>1.033575945449647</v>
       </c>
       <c r="F25">
-        <v>1.069172903635301</v>
+        <v>1.046097052101493</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050990011451322</v>
+        <v>1.060121890292409</v>
       </c>
       <c r="J25">
-        <v>1.055624846609723</v>
+        <v>1.046627571969574</v>
       </c>
       <c r="K25">
-        <v>1.059713651153187</v>
+        <v>1.053099900469777</v>
       </c>
       <c r="L25">
-        <v>1.063756045365187</v>
+        <v>1.045674474831823</v>
       </c>
       <c r="M25">
-        <v>1.072124117156851</v>
+        <v>1.058019563397954</v>
       </c>
       <c r="N25">
-        <v>1.022318147603484</v>
+        <v>1.018941696553472</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_14/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.029446156280988</v>
+        <v>1.001086662950091</v>
       </c>
       <c r="D2">
-        <v>1.046178952613292</v>
+        <v>1.025385743048143</v>
       </c>
       <c r="E2">
-        <v>1.03934556320967</v>
+        <v>0.9527101846680762</v>
       </c>
       <c r="F2">
-        <v>1.051924324279799</v>
+        <v>1.02944645416676</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.06266275558558</v>
+        <v>1.049400729669424</v>
       </c>
       <c r="J2">
-        <v>1.050780444738128</v>
+        <v>1.023234920623395</v>
       </c>
       <c r="K2">
-        <v>1.057030353227795</v>
+        <v>1.036502389733535</v>
       </c>
       <c r="L2">
-        <v>1.050282671756406</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.062704735502631</v>
+        <v>1.040510247340326</v>
       </c>
       <c r="N2">
-        <v>1.020361846237957</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.011788785907716</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.040633533946352</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.036880609735402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034095562752917</v>
+        <v>1.004461350061795</v>
       </c>
       <c r="D3">
-        <v>1.049758031509396</v>
+        <v>1.027642107301986</v>
       </c>
       <c r="E3">
-        <v>1.043432003136911</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.056044681960806</v>
+        <v>1.031885907406972</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.064432087320825</v>
+        <v>1.050052966341886</v>
       </c>
       <c r="J3">
-        <v>1.053698015130524</v>
+        <v>1.024831128650021</v>
       </c>
       <c r="K3">
-        <v>1.059791501363339</v>
+        <v>1.03793310886298</v>
       </c>
       <c r="L3">
-        <v>1.053537760459367</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.06600737060773</v>
+        <v>1.042126431439331</v>
       </c>
       <c r="N3">
-        <v>1.021359075257685</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.012316908826111</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.0419126339292</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.037889585398125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.037041493913003</v>
+        <v>1.006607529061522</v>
       </c>
       <c r="D4">
-        <v>1.052028783091037</v>
+        <v>1.029078402115044</v>
       </c>
       <c r="E4">
-        <v>1.046031312456152</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.058662398972989</v>
+        <v>1.033442884041235</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.065543479769682</v>
+        <v>1.050453738654061</v>
       </c>
       <c r="J4">
-        <v>1.055542897579888</v>
+        <v>1.025843710587364</v>
       </c>
       <c r="K4">
-        <v>1.061537341626573</v>
+        <v>1.038838100068593</v>
       </c>
       <c r="L4">
-        <v>1.055604195227689</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.0681008481958</v>
+        <v>1.043153766295926</v>
       </c>
       <c r="N4">
-        <v>1.021989395516173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.012652027768061</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.042725698542258</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.03853039156789</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.038265520314902</v>
+        <v>1.007503351272974</v>
       </c>
       <c r="D5">
-        <v>1.052972945627584</v>
+        <v>1.029679782689215</v>
       </c>
       <c r="E5">
-        <v>1.047113690952999</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.05975168753484</v>
+        <v>1.034094615071288</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.066002899632639</v>
+        <v>1.050618771003754</v>
       </c>
       <c r="J5">
-        <v>1.056308512776022</v>
+        <v>1.02626689067312</v>
       </c>
       <c r="K5">
-        <v>1.062261815539068</v>
+        <v>1.039216762704057</v>
       </c>
       <c r="L5">
-        <v>1.056463701076016</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.068970850653651</v>
+        <v>1.043583517204414</v>
       </c>
       <c r="N5">
-        <v>1.022250906089799</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.012792354523439</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.043065816446821</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.038805320722222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.038470207714717</v>
+        <v>1.007656054201526</v>
       </c>
       <c r="D6">
-        <v>1.053130871014622</v>
+        <v>1.029784237082132</v>
       </c>
       <c r="E6">
-        <v>1.047294829495443</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.05993393824625</v>
+        <v>1.034206441694349</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.066079586105651</v>
+        <v>1.050648121203352</v>
       </c>
       <c r="J6">
-        <v>1.056436486995752</v>
+        <v>1.026340396751209</v>
       </c>
       <c r="K6">
-        <v>1.06238291036332</v>
+        <v>1.039283819358318</v>
       </c>
       <c r="L6">
-        <v>1.056607483795318</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.069116345186848</v>
+        <v>1.043658084023801</v>
       </c>
       <c r="N6">
-        <v>1.022294613950899</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.01281703489377</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.043124830873317</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.038861493846116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.037057905481704</v>
+        <v>1.006627002214062</v>
       </c>
       <c r="D7">
-        <v>1.052041439694165</v>
+        <v>1.029096601006623</v>
       </c>
       <c r="E7">
-        <v>1.046045815516792</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.058676997597775</v>
+        <v>1.033458786093065</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.065549648980071</v>
+        <v>1.050461121424914</v>
       </c>
       <c r="J7">
-        <v>1.055553166548351</v>
+        <v>1.025856665184215</v>
       </c>
       <c r="K7">
-        <v>1.061547058945204</v>
+        <v>1.038853206378668</v>
       </c>
       <c r="L7">
-        <v>1.055615715826794</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.068112512453798</v>
+        <v>1.043166619704075</v>
       </c>
       <c r="N7">
-        <v>1.021992903357848</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.012657148697884</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.042735871121657</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.038561217610361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031030723546596</v>
+        <v>1.002244168558845</v>
       </c>
       <c r="D8">
-        <v>1.047398083041649</v>
+        <v>1.026165563855031</v>
       </c>
       <c r="E8">
-        <v>1.040736121539138</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.053327089834817</v>
+        <v>1.030284098134582</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.063267770205911</v>
+        <v>1.049631831521429</v>
       </c>
       <c r="J8">
-        <v>1.051775546274877</v>
+        <v>1.023787471938493</v>
       </c>
       <c r="K8">
-        <v>1.05797212605245</v>
+        <v>1.037002396891921</v>
       </c>
       <c r="L8">
-        <v>1.051391182309597</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.063830097295885</v>
+        <v>1.041068901106351</v>
       </c>
       <c r="N8">
-        <v>1.020702024914442</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.011972650187331</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.041075670728158</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.037257110956441</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.019905766107357</v>
+        <v>0.9942112634322156</v>
       </c>
       <c r="D9">
-        <v>1.038853555891688</v>
+        <v>1.020798035835781</v>
       </c>
       <c r="E9">
-        <v>1.031018140576547</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.043510228124416</v>
+        <v>1.024508677956472</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.058980531534008</v>
+        <v>1.047997407207705</v>
       </c>
       <c r="J9">
-        <v>1.044774665257221</v>
+        <v>1.019970106080599</v>
       </c>
       <c r="K9">
-        <v>1.051346214546382</v>
+        <v>1.033562456744345</v>
       </c>
       <c r="L9">
-        <v>1.043627245907144</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.055934732115081</v>
+        <v>1.037216251152135</v>
       </c>
       <c r="N9">
-        <v>1.018307861029175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.010709233608086</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.038026552575165</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.034821653750472</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.012112395245016</v>
+        <v>0.9886820806744557</v>
       </c>
       <c r="D10">
-        <v>1.032889017261258</v>
+        <v>1.017134789114409</v>
       </c>
       <c r="E10">
-        <v>1.024269931157852</v>
+        <v>0.9361465105547284</v>
       </c>
       <c r="F10">
-        <v>1.03667587467096</v>
+        <v>1.020646056756546</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.05592869049719</v>
+        <v>1.046817964153265</v>
       </c>
       <c r="J10">
-        <v>1.039853554429498</v>
+        <v>1.017352052062737</v>
       </c>
       <c r="K10">
-        <v>1.046688799751352</v>
+        <v>1.031201411265357</v>
       </c>
       <c r="L10">
-        <v>1.038214388024328</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.05041307188275</v>
+        <v>1.034652284445411</v>
       </c>
       <c r="N10">
-        <v>1.016624059250384</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.009847268186308</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.036048925415215</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.033169098080925</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.008639274584058</v>
+        <v>0.9865528530472706</v>
       </c>
       <c r="D11">
-        <v>1.030236755223858</v>
+        <v>1.015877116255298</v>
       </c>
       <c r="E11">
-        <v>1.021277576133141</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.033641077239547</v>
+        <v>1.019793562695817</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.054557717764866</v>
+        <v>1.046462339580411</v>
       </c>
       <c r="J11">
-        <v>1.037657014360791</v>
+        <v>1.016495950161572</v>
       </c>
       <c r="K11">
-        <v>1.044610122980541</v>
+        <v>1.030505698722188</v>
       </c>
       <c r="L11">
-        <v>1.035809082652996</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.047955285078127</v>
+        <v>1.034351612020534</v>
       </c>
       <c r="N11">
-        <v>1.015872368466652</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.009596460383968</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.036248310203673</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.032710140229679</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.007333554176968</v>
+        <v>0.98584560119352</v>
       </c>
       <c r="D12">
-        <v>1.029240587583007</v>
+        <v>1.015509893375971</v>
       </c>
       <c r="E12">
-        <v>1.020154930565341</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.032501861870609</v>
+        <v>1.0197596123954</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.054040712362393</v>
+        <v>1.046379054439883</v>
       </c>
       <c r="J12">
-        <v>1.036830755314684</v>
+        <v>1.016261320323137</v>
       </c>
       <c r="K12">
-        <v>1.043828236293724</v>
+        <v>1.030345860995585</v>
       </c>
       <c r="L12">
-        <v>1.034905919445603</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.047031789027653</v>
+        <v>1.034517794213063</v>
       </c>
       <c r="N12">
-        <v>1.01558959795811</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.009541809494322</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.036706850711832</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.032597129140594</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.007614358007488</v>
+        <v>0.9861986382940463</v>
       </c>
       <c r="D13">
-        <v>1.029454775858285</v>
+        <v>1.015820267674287</v>
       </c>
       <c r="E13">
-        <v>1.020396256309414</v>
+        <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>1.032746778862314</v>
+        <v>1.020377100855892</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.054151968675608</v>
+        <v>1.046514083730156</v>
       </c>
       <c r="J13">
-        <v>1.037008468209301</v>
+        <v>1.016503998920204</v>
       </c>
       <c r="K13">
-        <v>1.043996403675987</v>
+        <v>1.030607487426879</v>
       </c>
       <c r="L13">
-        <v>1.035100099292367</v>
+        <v>0.9483836088964247</v>
       </c>
       <c r="M13">
-        <v>1.047230368847015</v>
+        <v>1.035081290833513</v>
       </c>
       <c r="N13">
-        <v>1.015650417020909</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.00964059302246</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.037429554787969</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.032779608351479</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.008531667656554</v>
+        <v>0.9869254215988242</v>
       </c>
       <c r="D14">
-        <v>1.030154639372984</v>
+        <v>1.016344040815133</v>
       </c>
       <c r="E14">
-        <v>1.021185008910842</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.033547156966978</v>
+        <v>1.021102868688537</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.054515142317666</v>
+        <v>1.046706927226549</v>
       </c>
       <c r="J14">
-        <v>1.03758893001906</v>
+        <v>1.016888865982617</v>
       </c>
       <c r="K14">
-        <v>1.044545694141155</v>
+        <v>1.030980750742089</v>
       </c>
       <c r="L14">
-        <v>1.035734628227504</v>
+        <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>1.047879167242588</v>
+        <v>1.035653956791164</v>
       </c>
       <c r="N14">
-        <v>1.015849068165898</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.009778754790106</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.038055797378794</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.033044948136165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.009094752506159</v>
+        <v>0.9873390097890137</v>
       </c>
       <c r="D15">
-        <v>1.030584373875789</v>
+        <v>1.016627765949998</v>
       </c>
       <c r="E15">
-        <v>1.021669489564056</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.0340386928176</v>
+        <v>1.021438200749439</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.054737866450465</v>
+        <v>1.046805818726821</v>
       </c>
       <c r="J15">
-        <v>1.037945182494645</v>
+        <v>1.017093812725997</v>
       </c>
       <c r="K15">
-        <v>1.044882820696655</v>
+        <v>1.031172549939638</v>
       </c>
       <c r="L15">
-        <v>1.036124278609871</v>
+        <v>0.9494987508782939</v>
       </c>
       <c r="M15">
-        <v>1.048277497338997</v>
+        <v>1.035897093081129</v>
       </c>
       <c r="N15">
-        <v>1.015970986957026</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.009848738507005</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.038285552547094</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.033186445505198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.012340748020266</v>
+        <v>0.9896188018933195</v>
       </c>
       <c r="D16">
-        <v>1.03306352746964</v>
+        <v>1.018132803250543</v>
       </c>
       <c r="E16">
-        <v>1.024466993008775</v>
+        <v>0.9363637346017259</v>
       </c>
       <c r="F16">
-        <v>1.036875642260688</v>
+        <v>1.022995109826593</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.056018606989436</v>
+        <v>1.047304063191197</v>
       </c>
       <c r="J16">
-        <v>1.03999790610849</v>
+        <v>1.018172314881013</v>
       </c>
       <c r="K16">
-        <v>1.046825410102155</v>
+        <v>1.032146464851607</v>
       </c>
       <c r="L16">
-        <v>1.038372683729637</v>
+        <v>0.9519451749175716</v>
       </c>
       <c r="M16">
-        <v>1.050574734792044</v>
+        <v>1.036925735930888</v>
       </c>
       <c r="N16">
-        <v>1.016673456680718</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.010200923176545</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.039059824782149</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.033878218056949</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.014349916187724</v>
+        <v>0.9909888887913655</v>
       </c>
       <c r="D17">
-        <v>1.034599633199283</v>
+        <v>1.019013932879947</v>
       </c>
       <c r="E17">
-        <v>1.026202561642706</v>
+        <v>0.9382760156855668</v>
       </c>
       <c r="F17">
-        <v>1.038634555823416</v>
+        <v>1.023804794459407</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.056808503627094</v>
+        <v>1.047581795711008</v>
       </c>
       <c r="J17">
-        <v>1.041267602093055</v>
+        <v>1.018797809854521</v>
       </c>
       <c r="K17">
-        <v>1.048027034383507</v>
+        <v>1.032696594739531</v>
       </c>
       <c r="L17">
-        <v>1.039766250310108</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>1.051997473157488</v>
+        <v>1.037407927697631</v>
       </c>
       <c r="N17">
-        <v>1.017107935806232</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.010398655566828</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.039311758727543</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.034269777652427</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.015512382495795</v>
+        <v>0.9916910338990972</v>
       </c>
       <c r="D18">
-        <v>1.035488943293016</v>
+        <v>1.019416639858647</v>
       </c>
       <c r="E18">
-        <v>1.027208144576684</v>
+        <v>0.9393832867215686</v>
       </c>
       <c r="F18">
-        <v>1.039653261710478</v>
+        <v>1.023995330715928</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.057264483718557</v>
+        <v>1.047686399588986</v>
       </c>
       <c r="J18">
-        <v>1.042001894030777</v>
+        <v>1.019071661214825</v>
       </c>
       <c r="K18">
-        <v>1.048721973593176</v>
+        <v>1.032908427181322</v>
       </c>
       <c r="L18">
-        <v>1.040573194550063</v>
+        <v>0.9543373515865728</v>
       </c>
       <c r="M18">
-        <v>1.052820917059987</v>
+        <v>1.037412340504807</v>
       </c>
       <c r="N18">
-        <v>1.017359191904306</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.010473378673428</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.039077202961897</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.034407883780376</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.015907175659431</v>
+        <v>0.9917763300890833</v>
       </c>
       <c r="D19">
-        <v>1.035791058937375</v>
+        <v>1.019378924369412</v>
       </c>
       <c r="E19">
-        <v>1.027549895432506</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.039999404343576</v>
+        <v>1.023610258816246</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.057419164482797</v>
+        <v>1.047633258935314</v>
       </c>
       <c r="J19">
-        <v>1.042251214604025</v>
+        <v>1.019017191071588</v>
       </c>
       <c r="K19">
-        <v>1.04895793451347</v>
+        <v>1.032808535044264</v>
       </c>
       <c r="L19">
-        <v>1.040847355226818</v>
+        <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.053100617151681</v>
+        <v>1.036971097098165</v>
       </c>
       <c r="N19">
-        <v>1.017444500783989</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.010434507363447</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.0384022242105</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.034343668055277</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.014135334564269</v>
+        <v>0.9901323701697651</v>
       </c>
       <c r="D20">
-        <v>1.034435517783512</v>
+        <v>1.018107353362247</v>
       </c>
       <c r="E20">
-        <v>1.026017053308224</v>
+        <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.0384465940948</v>
+        <v>1.021664854898825</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.05672424913829</v>
+        <v>1.047141097068465</v>
       </c>
       <c r="J20">
-        <v>1.041132030900277</v>
+        <v>1.018049044216136</v>
       </c>
       <c r="K20">
-        <v>1.047898729919058</v>
+        <v>1.031839107927583</v>
       </c>
       <c r="L20">
-        <v>1.039617347430062</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.051845493991535</v>
+        <v>1.035337158846</v>
       </c>
       <c r="N20">
-        <v>1.017061545730775</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.010079216036151</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.036580352795509</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.033662172902423</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.008261981899446</v>
+        <v>0.9859194269749781</v>
       </c>
       <c r="D21">
-        <v>1.029948855226676</v>
+        <v>1.015288645907718</v>
       </c>
       <c r="E21">
-        <v>1.020953053663291</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.033311800788773</v>
+        <v>1.018610543686257</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.0544084138326</v>
+        <v>1.046194563764241</v>
       </c>
       <c r="J21">
-        <v>1.037418288842321</v>
+        <v>1.016017879769018</v>
       </c>
       <c r="K21">
-        <v>1.044384215453625</v>
+        <v>1.029986045946416</v>
       </c>
       <c r="L21">
-        <v>1.035548047815863</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.047688408260477</v>
+        <v>1.033247708131224</v>
       </c>
       <c r="N21">
-        <v>1.015790669984332</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.0094044909944</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.034885699098888</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.032355217106961</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.004478169222715</v>
+        <v>0.9832335643601942</v>
       </c>
       <c r="D22">
-        <v>1.02706397440292</v>
+        <v>1.013499898169541</v>
       </c>
       <c r="E22">
-        <v>1.017704276972675</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.030013838874341</v>
+        <v>1.016709531528616</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.052907250459219</v>
+        <v>1.045581594242152</v>
       </c>
       <c r="J22">
-        <v>1.035023061427702</v>
+        <v>1.014727708789359</v>
       </c>
       <c r="K22">
-        <v>1.042117701366839</v>
+        <v>1.028808580829811</v>
       </c>
       <c r="L22">
-        <v>1.0329329824962</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.045013276750793</v>
+        <v>1.031957081340976</v>
       </c>
       <c r="N22">
-        <v>1.014970937942534</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.008976880244635</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.033864245750529</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.031509141279621</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.006492964186468</v>
+        <v>0.9846560693795855</v>
       </c>
       <c r="D23">
-        <v>1.028599557355287</v>
+        <v>1.014442881814016</v>
       </c>
       <c r="E23">
-        <v>1.019432866679217</v>
+        <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>1.031768957228377</v>
+        <v>1.017714205075466</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.053707436575352</v>
+        <v>1.045904778094615</v>
       </c>
       <c r="J23">
-        <v>1.036298704451346</v>
+        <v>1.01540822078161</v>
       </c>
       <c r="K23">
-        <v>1.043324769838375</v>
+        <v>1.029427236432544</v>
       </c>
       <c r="L23">
-        <v>1.034324807994393</v>
+        <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>1.046437417711605</v>
+        <v>1.03263784221548</v>
       </c>
       <c r="N23">
-        <v>1.015407511922435</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.009201551874868</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.034403027153516</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.031936892010785</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.014232323897218</v>
+        <v>0.9901594131048858</v>
       </c>
       <c r="D24">
-        <v>1.034509695061877</v>
+        <v>1.018103948705306</v>
       </c>
       <c r="E24">
-        <v>1.026100897340915</v>
+        <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>1.038531548234088</v>
+        <v>1.02161940401971</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.056762334780111</v>
+        <v>1.047131162833958</v>
       </c>
       <c r="J24">
-        <v>1.04119330911985</v>
+        <v>1.018041602322327</v>
       </c>
       <c r="K24">
-        <v>1.04795672353097</v>
+        <v>1.031820426666298</v>
       </c>
       <c r="L24">
-        <v>1.039684648428346</v>
+        <v>0.9533716596442542</v>
       </c>
       <c r="M24">
-        <v>1.05191418662239</v>
+        <v>1.035277205709476</v>
       </c>
       <c r="N24">
-        <v>1.017082514097516</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.010072577713551</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.036491921175004</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.033621477705491</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.022845320733345</v>
+        <v>0.9963361969854123</v>
       </c>
       <c r="D25">
-        <v>1.041107893792989</v>
+        <v>1.022223675649472</v>
       </c>
       <c r="E25">
-        <v>1.033575945449647</v>
+        <v>0.9463835801718016</v>
       </c>
       <c r="F25">
-        <v>1.046097052101493</v>
+        <v>1.026033365831555</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.060121890292409</v>
+        <v>1.048447490844584</v>
       </c>
       <c r="J25">
-        <v>1.046627571969574</v>
+        <v>1.020987494968136</v>
       </c>
       <c r="K25">
-        <v>1.053099900469777</v>
+        <v>1.034486522250119</v>
       </c>
       <c r="L25">
-        <v>1.045674474831823</v>
+        <v>0.9598754494005831</v>
       </c>
       <c r="M25">
-        <v>1.058019563397954</v>
+        <v>1.038240555427125</v>
       </c>
       <c r="N25">
-        <v>1.018941696553472</v>
+        <v>1.011047265923217</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.038837223066082</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.035503684466423</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_14/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.001086662950091</v>
+        <v>1.000968656863048</v>
       </c>
       <c r="D2">
-        <v>1.025385743048143</v>
+        <v>1.024830844016642</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680762</v>
+        <v>0.9527101846680759</v>
       </c>
       <c r="F2">
-        <v>1.02944645416676</v>
+        <v>1.029096352163514</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.049400729669424</v>
+        <v>1.049119002244458</v>
       </c>
       <c r="J2">
-        <v>1.023234920623395</v>
+        <v>1.023120434121013</v>
       </c>
       <c r="K2">
-        <v>1.036502389733535</v>
+        <v>1.035954753930307</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.040510247340326</v>
+        <v>1.040164681638605</v>
       </c>
       <c r="N2">
-        <v>1.011788785907716</v>
+        <v>1.013431494402265</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.040633533946352</v>
+        <v>1.040360041861725</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.036880609735402</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.036502175887633</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021692871574568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.004461350061795</v>
+        <v>1.004223406403045</v>
       </c>
       <c r="D3">
-        <v>1.027642107301986</v>
+        <v>1.026937388982591</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.031885907406972</v>
+        <v>1.031426294650073</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.050052966341886</v>
+        <v>1.049694803892252</v>
       </c>
       <c r="J3">
-        <v>1.024831128650021</v>
+        <v>1.024599595527807</v>
       </c>
       <c r="K3">
-        <v>1.03793310886298</v>
+        <v>1.037236822855657</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.042126431439331</v>
+        <v>1.04167226065839</v>
       </c>
       <c r="N3">
-        <v>1.012316908826111</v>
+        <v>1.01382070497045</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.0419126339292</v>
+        <v>1.041553188820788</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.037889585398125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.037405766589739</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021932045929721</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006607529061522</v>
+        <v>1.006294096214948</v>
       </c>
       <c r="D4">
-        <v>1.029078402115044</v>
+        <v>1.028278983224594</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.033442884041235</v>
+        <v>1.032914147168286</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.050453738654061</v>
+        <v>1.050047169210254</v>
       </c>
       <c r="J4">
-        <v>1.025843710587364</v>
+        <v>1.025538157293107</v>
       </c>
       <c r="K4">
-        <v>1.038838100068593</v>
+        <v>1.038047677799778</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.043153766295926</v>
+        <v>1.042630916198466</v>
       </c>
       <c r="N4">
-        <v>1.012652027768061</v>
+        <v>1.014067760635993</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.042725698542258</v>
+        <v>1.042311898900898</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.03853039156789</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.037980092336484</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022080722598075</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.007503351272974</v>
+        <v>1.007158629930623</v>
       </c>
       <c r="D5">
-        <v>1.029679782689215</v>
+        <v>1.028841063179355</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.034094615071288</v>
+        <v>1.033537209478963</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.050618771003754</v>
+        <v>1.050192090565331</v>
       </c>
       <c r="J5">
-        <v>1.02626689067312</v>
+        <v>1.025930579422786</v>
       </c>
       <c r="K5">
-        <v>1.039216762704057</v>
+        <v>1.038387234196697</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.043583517204414</v>
+        <v>1.043032154010918</v>
       </c>
       <c r="N5">
-        <v>1.012792354523439</v>
+        <v>1.014171274906135</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.043065816446821</v>
+        <v>1.042629450862162</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.038805320722222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.038228080363951</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022142674311371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,105 +687,123 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.007656054201526</v>
+        <v>1.007306059828489</v>
       </c>
       <c r="D6">
-        <v>1.029784237082132</v>
+        <v>1.028938938555635</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.034206441694349</v>
+        <v>1.033644233044826</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.050648121203352</v>
+        <v>1.050218072823253</v>
       </c>
       <c r="J6">
-        <v>1.026340396751209</v>
+        <v>1.02599889770671</v>
       </c>
       <c r="K6">
-        <v>1.039283819358318</v>
+        <v>1.038447742073769</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.043658084023801</v>
+        <v>1.04310194222185</v>
       </c>
       <c r="N6">
-        <v>1.01281703489377</v>
+        <v>1.014189534691471</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.043124830873317</v>
+        <v>1.042684683387309</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.038861493846116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.038280490894957</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022154070039528</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.050000000000001</v>
       </c>
       <c r="C7">
-        <v>1.006627002214062</v>
+        <v>1.00632069189079</v>
       </c>
       <c r="D7">
-        <v>1.029096601006623</v>
+        <v>1.028301567876936</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.033458786093065</v>
+        <v>1.032933937354138</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.050461121424914</v>
+        <v>1.050056780796758</v>
       </c>
       <c r="J7">
-        <v>1.025856665184215</v>
+        <v>1.025558052066593</v>
       </c>
       <c r="K7">
-        <v>1.038853206378668</v>
+        <v>1.038067117092317</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.043166619704075</v>
+        <v>1.042647612256459</v>
       </c>
       <c r="N7">
-        <v>1.012657148697884</v>
+        <v>1.014099480035773</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.042735871121657</v>
+        <v>1.042325112678133</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.038561217610361</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.038015979043017</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022085798749369</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.002244168558845</v>
+        <v>1.002108541703773</v>
       </c>
       <c r="D8">
-        <v>1.026165563855031</v>
+        <v>1.025574684066134</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.030284098134582</v>
+        <v>1.029909796857441</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.049631831521429</v>
+        <v>1.04933173194467</v>
       </c>
       <c r="J8">
-        <v>1.023787471938493</v>
+        <v>1.023655755956174</v>
       </c>
       <c r="K8">
-        <v>1.037002396891921</v>
+        <v>1.036419024581828</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.041068901106351</v>
+        <v>1.040699306989666</v>
       </c>
       <c r="N8">
-        <v>1.011972650187331</v>
+        <v>1.013651654904405</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.041075670728158</v>
+        <v>1.040783161939489</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.037257110956441</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.036855673047236</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021782636634163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9942112634322156</v>
+        <v>0.9943692861054553</v>
       </c>
       <c r="D9">
-        <v>1.020798035835781</v>
+        <v>1.020569116416965</v>
       </c>
       <c r="E9">
         <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.024508677956472</v>
+        <v>1.024399919305343</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.047997407207705</v>
+        <v>1.047881413070086</v>
       </c>
       <c r="J9">
-        <v>1.019970106080599</v>
+        <v>1.020122458336501</v>
       </c>
       <c r="K9">
-        <v>1.033562456744345</v>
+        <v>1.033337061693948</v>
       </c>
       <c r="L9">
         <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.037216251152135</v>
+        <v>1.037109151232792</v>
       </c>
       <c r="N9">
-        <v>1.010709233608086</v>
+        <v>1.012731161226259</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.038026552575165</v>
+        <v>1.037941789872635</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.034821653750472</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.034673052417828</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021192164226171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9886820806744557</v>
+        <v>0.9890791977538945</v>
       </c>
       <c r="D10">
-        <v>1.017134789114409</v>
+        <v>1.017178133349785</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547284</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.020646056756546</v>
+        <v>1.020740769992622</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.046817964153265</v>
+        <v>1.046839893907887</v>
       </c>
       <c r="J10">
-        <v>1.017352052062737</v>
+        <v>1.017732905647047</v>
       </c>
       <c r="K10">
-        <v>1.031201411265357</v>
+        <v>1.031244006683981</v>
       </c>
       <c r="L10">
         <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.034652284445411</v>
+        <v>1.034745376032584</v>
       </c>
       <c r="N10">
-        <v>1.009847268186308</v>
+        <v>1.01222224779595</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.036048925415215</v>
+        <v>1.036122596999956</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.033169098080925</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.033211662125422</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020783461029768</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9865528530472706</v>
+        <v>0.9870818170602206</v>
       </c>
       <c r="D11">
-        <v>1.015877116255298</v>
+        <v>1.016043674455091</v>
       </c>
       <c r="E11">
         <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.019793562695817</v>
+        <v>1.019985326257199</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.046462339580411</v>
+        <v>1.046546556354889</v>
       </c>
       <c r="J11">
-        <v>1.016495950161572</v>
+        <v>1.017002060473444</v>
       </c>
       <c r="K11">
-        <v>1.030505698722188</v>
+        <v>1.030669242900273</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.034351612020534</v>
+        <v>1.034539940088267</v>
       </c>
       <c r="N11">
-        <v>1.009596460383968</v>
+        <v>1.012279846303342</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.036248310203673</v>
+        <v>1.036397275469634</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.032710140229679</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.032841432817843</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020695146415121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.98584560119352</v>
+        <v>0.9864215560947572</v>
       </c>
       <c r="D12">
-        <v>1.015509893375971</v>
+        <v>1.015716735527017</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.0197596123954</v>
+        <v>1.019984151005516</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.046379054439883</v>
+        <v>1.046483616530505</v>
       </c>
       <c r="J12">
-        <v>1.016261320323137</v>
+        <v>1.016811908450865</v>
       </c>
       <c r="K12">
-        <v>1.030345860995585</v>
+        <v>1.030548897525989</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.034517794213063</v>
+        <v>1.034738246383027</v>
       </c>
       <c r="N12">
-        <v>1.009541809494322</v>
+        <v>1.012346474582663</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.036706850711832</v>
+        <v>1.036881166486553</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.032597129140594</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.032756346078949</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.0206845789129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9861986382940463</v>
+        <v>0.9867483665005977</v>
       </c>
       <c r="D13">
-        <v>1.015820267674287</v>
+        <v>1.01599911062526</v>
       </c>
       <c r="E13">
         <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>1.020377100855892</v>
+        <v>1.020580984034004</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.046514083730156</v>
+        <v>1.046604496995677</v>
       </c>
       <c r="J13">
-        <v>1.016503998920204</v>
+        <v>1.017029628116765</v>
       </c>
       <c r="K13">
-        <v>1.030607487426879</v>
+        <v>1.030783053405625</v>
       </c>
       <c r="L13">
-        <v>0.9483836088964247</v>
+        <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>1.035081290833513</v>
+        <v>1.035281481605163</v>
       </c>
       <c r="N13">
-        <v>1.00964059302246</v>
+        <v>1.012393654765493</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.037429554787969</v>
+        <v>1.037587809562926</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.032779608351479</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.032919156958002</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020738646842613</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9869254215988242</v>
+        <v>0.9874247281996541</v>
       </c>
       <c r="D14">
-        <v>1.016344040815133</v>
+        <v>1.016473281706946</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.021102868688537</v>
+        <v>1.021268884667892</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.046706927226549</v>
+        <v>1.046772275414851</v>
       </c>
       <c r="J14">
-        <v>1.016888865982617</v>
+        <v>1.017366591622863</v>
       </c>
       <c r="K14">
-        <v>1.030980750742089</v>
+        <v>1.03110765253233</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.035653956791164</v>
+        <v>1.035817004481324</v>
       </c>
       <c r="N14">
-        <v>1.009778754790106</v>
+        <v>1.012418992177296</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.038055797378794</v>
+        <v>1.038184672361825</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.033044948136165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.03315022288344</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020805761225605</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9873390097890137</v>
+        <v>0.9878102592790534</v>
       </c>
       <c r="D15">
-        <v>1.016627765949998</v>
+        <v>1.016729921479653</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9332781050737292</v>
       </c>
       <c r="F15">
-        <v>1.021438200749439</v>
+        <v>1.02158331633318</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.046805818726821</v>
+        <v>1.046857477015978</v>
       </c>
       <c r="J15">
-        <v>1.017093812725997</v>
+        <v>1.01754486997931</v>
       </c>
       <c r="K15">
-        <v>1.031172549939638</v>
+        <v>1.03127287047911</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9494987508782936</v>
       </c>
       <c r="M15">
-        <v>1.035897093081129</v>
+        <v>1.036039633893131</v>
       </c>
       <c r="N15">
-        <v>1.009848738507005</v>
+        <v>1.012425996908488</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.038285552547094</v>
+        <v>1.038398215657476</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.033186445505198</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.033273494153143</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020838998978921</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9896188018933195</v>
+        <v>0.9899429412077606</v>
       </c>
       <c r="D16">
-        <v>1.018132803250543</v>
+        <v>1.018092031435281</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.022995109826593</v>
+        <v>1.02302945935189</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.047304063191197</v>
+        <v>1.047283433323319</v>
       </c>
       <c r="J16">
-        <v>1.018172314881013</v>
+        <v>1.018483256203774</v>
       </c>
       <c r="K16">
-        <v>1.032146464851607</v>
+        <v>1.032106393647219</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.036925735930888</v>
+        <v>1.036959502480429</v>
       </c>
       <c r="N16">
-        <v>1.010200923176545</v>
+        <v>1.012464426325875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.039059824782149</v>
+        <v>1.039086514351099</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.033878218056949</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.033866301367441</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021004335608697</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9909888887913655</v>
+        <v>0.9912346905483109</v>
       </c>
       <c r="D17">
-        <v>1.019013932879947</v>
+        <v>1.018894569157791</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855668</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.023804794459407</v>
+        <v>1.023778438677619</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.047581795711008</v>
+        <v>1.047521377027957</v>
       </c>
       <c r="J17">
-        <v>1.018797809854521</v>
+        <v>1.019033924426834</v>
       </c>
       <c r="K17">
-        <v>1.032696594739531</v>
+        <v>1.032579224767024</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.037407927697631</v>
+        <v>1.037382006803685</v>
       </c>
       <c r="N17">
-        <v>1.010398655566828</v>
+        <v>1.012509181386622</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.039311758727543</v>
+        <v>1.03929126843352</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.034269777652427</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.034203453702392</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021095924340078</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9916910338990972</v>
+        <v>0.9919017742363572</v>
       </c>
       <c r="D18">
-        <v>1.019416639858647</v>
+        <v>1.019262125507149</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215686</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.023995330715928</v>
+        <v>1.023941385538029</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.047686399588986</v>
+        <v>1.047608171765439</v>
       </c>
       <c r="J18">
-        <v>1.019071661214825</v>
+        <v>1.019274252838883</v>
       </c>
       <c r="K18">
-        <v>1.032908427181322</v>
+        <v>1.032756451373357</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865728</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.037412340504807</v>
+        <v>1.037359271339919</v>
       </c>
       <c r="N18">
-        <v>1.010473378673428</v>
+        <v>1.012520264138627</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.039077202961897</v>
+        <v>1.0390352433696</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.034407883780376</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.034315957864919</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021124261567174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9917763300890833</v>
+        <v>0.9919888628403042</v>
       </c>
       <c r="D19">
-        <v>1.019378924369412</v>
+        <v>1.01922833363688</v>
       </c>
       <c r="E19">
         <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.023610258816246</v>
+        <v>1.023558256693651</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.047633258935314</v>
+        <v>1.047557012458743</v>
       </c>
       <c r="J19">
-        <v>1.019017191071588</v>
+        <v>1.019221555977757</v>
       </c>
       <c r="K19">
-        <v>1.032808535044264</v>
+        <v>1.032660405405982</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.036971097098165</v>
+        <v>1.036919935742189</v>
       </c>
       <c r="N19">
-        <v>1.010434507363447</v>
+        <v>1.012480123497312</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.0384022242105</v>
+        <v>1.038361759773996</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.034343668055277</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.034255085502594</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021092364588601</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9901323701697651</v>
+        <v>0.9904454430750735</v>
       </c>
       <c r="D20">
-        <v>1.018107353362247</v>
+        <v>1.01806600395062</v>
       </c>
       <c r="E20">
         <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.021664854898825</v>
+        <v>1.021694462522282</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.047141097068465</v>
+        <v>1.047120168623842</v>
       </c>
       <c r="J20">
-        <v>1.018049044216136</v>
+        <v>1.018349711044528</v>
       </c>
       <c r="K20">
-        <v>1.031839107927583</v>
+        <v>1.031798452669277</v>
       </c>
       <c r="L20">
         <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.035337158846</v>
+        <v>1.035366273923699</v>
       </c>
       <c r="N20">
-        <v>1.010079216036151</v>
+        <v>1.012287475956153</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.036580352795509</v>
+        <v>1.036603394405036</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.033662172902423</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.033649970511906</v>
+      </c>
+      <c r="S20">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T20">
+        <v>1.020893790648678</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9859194269749781</v>
+        <v>0.9865221237088944</v>
       </c>
       <c r="D21">
-        <v>1.015288645907718</v>
+        <v>1.015525448039877</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.018610543686257</v>
+        <v>1.018856576417358</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.046194563764241</v>
+        <v>1.046314287775331</v>
       </c>
       <c r="J21">
-        <v>1.016017879769018</v>
+        <v>1.016594361030926</v>
       </c>
       <c r="K21">
-        <v>1.029986045946416</v>
+        <v>1.030218537198093</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.033247708131224</v>
+        <v>1.03348929988845</v>
       </c>
       <c r="N21">
-        <v>1.0094044909944</v>
+        <v>1.012239995548748</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.034885699098888</v>
+        <v>1.035076904255261</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.032355217106961</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.032536471384323</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020580341804781</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9832335643601942</v>
+        <v>0.9840190073756209</v>
       </c>
       <c r="D22">
-        <v>1.013499898169541</v>
+        <v>1.013912196059619</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.016709531528616</v>
+        <v>1.017092268597109</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.045581594242152</v>
+        <v>1.045789906301387</v>
       </c>
       <c r="J22">
-        <v>1.014727708789359</v>
+        <v>1.015477007775278</v>
       </c>
       <c r="K22">
-        <v>1.028808580829811</v>
+        <v>1.029212997465124</v>
       </c>
       <c r="L22">
         <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.031957081340976</v>
+        <v>1.032332562199952</v>
       </c>
       <c r="N22">
-        <v>1.008976880244635</v>
+        <v>1.012202336248568</v>
       </c>
       <c r="O22">
-        <v>1.03</v>
+        <v>1.029999999999999</v>
       </c>
       <c r="P22">
-        <v>1.033864245750529</v>
+        <v>1.034161416381618</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.031509141279621</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.031810658286545</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020378922796386</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9846560693795855</v>
+        <v>0.9853323782772203</v>
       </c>
       <c r="D23">
-        <v>1.014442881814016</v>
+        <v>1.014754071886459</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>1.017714205075466</v>
+        <v>1.018017440313308</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.045904778094615</v>
+        <v>1.046062061677943</v>
       </c>
       <c r="J23">
-        <v>1.01540822078161</v>
+        <v>1.016054316112726</v>
       </c>
       <c r="K23">
-        <v>1.029427236432544</v>
+        <v>1.029732628671108</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>1.03263784221548</v>
+        <v>1.032935475006979</v>
       </c>
       <c r="N23">
-        <v>1.009201551874868</v>
+        <v>1.01217834991093</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.034403027153516</v>
+        <v>1.034638585527789</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.031936892010785</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.032167451592496</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020482037908969</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9901594131048858</v>
+        <v>0.990472121145149</v>
       </c>
       <c r="D24">
-        <v>1.018103948705306</v>
+        <v>1.018062252956842</v>
       </c>
       <c r="E24">
         <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>1.02161940401971</v>
+        <v>1.02164868395018</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.047131162833958</v>
+        <v>1.047110058748988</v>
       </c>
       <c r="J24">
-        <v>1.018041602322327</v>
+        <v>1.018341937145936</v>
       </c>
       <c r="K24">
-        <v>1.031820426666298</v>
+        <v>1.03177942999382</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442542</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.035277205709476</v>
+        <v>1.035305999113783</v>
       </c>
       <c r="N24">
-        <v>1.010072577713551</v>
+        <v>1.012278503619502</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.036491921175004</v>
+        <v>1.036514709351253</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.033621477705491</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.033606364256415</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020886306964089</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9963361969854123</v>
+        <v>0.996406536175838</v>
       </c>
       <c r="D25">
-        <v>1.022223675649472</v>
+        <v>1.02189284788056</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718016</v>
+        <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>1.026033365831555</v>
+        <v>1.02584887244495</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.048447490844584</v>
+        <v>1.048279759914587</v>
       </c>
       <c r="J25">
-        <v>1.020987494968136</v>
+        <v>1.021055442862455</v>
       </c>
       <c r="K25">
-        <v>1.034486522250119</v>
+        <v>1.034160552514582</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005831</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.038240555427125</v>
+        <v>1.038058745284634</v>
       </c>
       <c r="N25">
-        <v>1.011047265923217</v>
+        <v>1.012944853731424</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.038837223066082</v>
+        <v>1.038693332180923</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.035503684466423</v>
+        <v>1.035286770630822</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.02135313686575</v>
       </c>
     </row>
   </sheetData>
